--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D7EF81-B163-4A0A-B883-562DA99A6D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB2FBC4-8B5C-473B-877C-AB341FDDE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="575">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -7750,6 +7750,17 @@
     <t>タイムアウトについては定義されていない</t>
     <rPh sb="11" eb="18">
       <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が登録され、以下のレスポンスが返される。
+・ステータスコード：201</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8763,8 +8774,116 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -8874,119 +8993,11 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9922,12 +9933,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="159" t="str">
+      <c r="I25" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="159"/>
-      <c r="K25" s="159"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10487,57 +10498,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="169" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="205" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="175" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="184" t="s">
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="220" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="221"/>
+      <c r="W1" s="221"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="193" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="229" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="160" t="str">
+      <c r="AD1" s="230"/>
+      <c r="AE1" s="230"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="196" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10545,53 +10556,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169" t="s">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="160" t="str">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="196" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10599,45 +10610,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="230"/>
+      <c r="AE3" s="230"/>
+      <c r="AF3" s="231"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10674,85 +10685,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="163" t="s">
+      <c r="C7" s="200"/>
+      <c r="D7" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="163" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="163" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="163" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="163" t="s">
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="201"/>
+      <c r="X7" s="201"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="201"/>
+      <c r="AB7" s="201"/>
+      <c r="AC7" s="201"/>
+      <c r="AD7" s="201"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="164"/>
+      <c r="AG7" s="201"/>
+      <c r="AH7" s="201"/>
+      <c r="AI7" s="200"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="208"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="215"/>
-      <c r="S8" s="215"/>
-      <c r="T8" s="215"/>
-      <c r="U8" s="215"/>
-      <c r="V8" s="215"/>
-      <c r="W8" s="215"/>
-      <c r="X8" s="215"/>
-      <c r="Y8" s="215"/>
-      <c r="Z8" s="215"/>
-      <c r="AA8" s="215"/>
-      <c r="AB8" s="215"/>
-      <c r="AC8" s="215"/>
-      <c r="AD8" s="215"/>
-      <c r="AE8" s="216"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="195"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10760,1089 +10771,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="206"/>
-      <c r="S9" s="206"/>
-      <c r="T9" s="206"/>
-      <c r="U9" s="206"/>
-      <c r="V9" s="206"/>
-      <c r="W9" s="206"/>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="206"/>
-      <c r="Z9" s="206"/>
-      <c r="AA9" s="206"/>
-      <c r="AB9" s="206"/>
-      <c r="AC9" s="206"/>
-      <c r="AD9" s="206"/>
-      <c r="AE9" s="207"/>
-      <c r="AF9" s="202"/>
-      <c r="AG9" s="203"/>
-      <c r="AH9" s="203"/>
-      <c r="AI9" s="204"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="180"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="181"/>
+      <c r="AI9" s="182"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="206"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="206"/>
-      <c r="U10" s="206"/>
-      <c r="V10" s="206"/>
-      <c r="W10" s="206"/>
-      <c r="X10" s="206"/>
-      <c r="Y10" s="206"/>
-      <c r="Z10" s="206"/>
-      <c r="AA10" s="206"/>
-      <c r="AB10" s="206"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="206"/>
-      <c r="AE10" s="207"/>
-      <c r="AF10" s="202"/>
-      <c r="AG10" s="203"/>
-      <c r="AH10" s="203"/>
-      <c r="AI10" s="204"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="180"/>
+      <c r="AG10" s="181"/>
+      <c r="AH10" s="181"/>
+      <c r="AI10" s="182"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="204"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="206"/>
-      <c r="S11" s="206"/>
-      <c r="T11" s="206"/>
-      <c r="U11" s="206"/>
-      <c r="V11" s="206"/>
-      <c r="W11" s="206"/>
-      <c r="X11" s="206"/>
-      <c r="Y11" s="206"/>
-      <c r="Z11" s="206"/>
-      <c r="AA11" s="206"/>
-      <c r="AB11" s="206"/>
-      <c r="AC11" s="206"/>
-      <c r="AD11" s="206"/>
-      <c r="AE11" s="207"/>
-      <c r="AF11" s="202"/>
-      <c r="AG11" s="203"/>
-      <c r="AH11" s="203"/>
-      <c r="AI11" s="204"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
+      <c r="AF11" s="180"/>
+      <c r="AG11" s="181"/>
+      <c r="AH11" s="181"/>
+      <c r="AI11" s="182"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="197"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="203"/>
-      <c r="P12" s="204"/>
-      <c r="Q12" s="205"/>
-      <c r="R12" s="206"/>
-      <c r="S12" s="206"/>
-      <c r="T12" s="206"/>
-      <c r="U12" s="206"/>
-      <c r="V12" s="206"/>
-      <c r="W12" s="206"/>
-      <c r="X12" s="206"/>
-      <c r="Y12" s="206"/>
-      <c r="Z12" s="206"/>
-      <c r="AA12" s="206"/>
-      <c r="AB12" s="206"/>
-      <c r="AC12" s="206"/>
-      <c r="AD12" s="206"/>
-      <c r="AE12" s="207"/>
-      <c r="AF12" s="202"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="204"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="180"/>
+      <c r="AG12" s="181"/>
+      <c r="AH12" s="181"/>
+      <c r="AI12" s="182"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="205"/>
-      <c r="R13" s="206"/>
-      <c r="S13" s="206"/>
-      <c r="T13" s="206"/>
-      <c r="U13" s="206"/>
-      <c r="V13" s="206"/>
-      <c r="W13" s="206"/>
-      <c r="X13" s="206"/>
-      <c r="Y13" s="206"/>
-      <c r="Z13" s="206"/>
-      <c r="AA13" s="206"/>
-      <c r="AB13" s="206"/>
-      <c r="AC13" s="206"/>
-      <c r="AD13" s="206"/>
-      <c r="AE13" s="207"/>
-      <c r="AF13" s="202"/>
-      <c r="AG13" s="203"/>
-      <c r="AH13" s="203"/>
-      <c r="AI13" s="204"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="180"/>
+      <c r="AG13" s="181"/>
+      <c r="AH13" s="181"/>
+      <c r="AI13" s="182"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="205"/>
-      <c r="R14" s="206"/>
-      <c r="S14" s="206"/>
-      <c r="T14" s="206"/>
-      <c r="U14" s="206"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="206"/>
-      <c r="X14" s="206"/>
-      <c r="Y14" s="206"/>
-      <c r="Z14" s="206"/>
-      <c r="AA14" s="206"/>
-      <c r="AB14" s="206"/>
-      <c r="AC14" s="206"/>
-      <c r="AD14" s="206"/>
-      <c r="AE14" s="207"/>
-      <c r="AF14" s="202"/>
-      <c r="AG14" s="203"/>
-      <c r="AH14" s="203"/>
-      <c r="AI14" s="204"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="183"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="184"/>
+      <c r="Y14" s="184"/>
+      <c r="Z14" s="184"/>
+      <c r="AA14" s="184"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="184"/>
+      <c r="AD14" s="184"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="180"/>
+      <c r="AG14" s="181"/>
+      <c r="AH14" s="181"/>
+      <c r="AI14" s="182"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="204"/>
-      <c r="Q15" s="205"/>
-      <c r="R15" s="206"/>
-      <c r="S15" s="206"/>
-      <c r="T15" s="206"/>
-      <c r="U15" s="206"/>
-      <c r="V15" s="206"/>
-      <c r="W15" s="206"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="206"/>
-      <c r="Z15" s="206"/>
-      <c r="AA15" s="206"/>
-      <c r="AB15" s="206"/>
-      <c r="AC15" s="206"/>
-      <c r="AD15" s="206"/>
-      <c r="AE15" s="207"/>
-      <c r="AF15" s="202"/>
-      <c r="AG15" s="203"/>
-      <c r="AH15" s="203"/>
-      <c r="AI15" s="204"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="183"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="184"/>
+      <c r="Y15" s="184"/>
+      <c r="Z15" s="184"/>
+      <c r="AA15" s="184"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="184"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="180"/>
+      <c r="AG15" s="181"/>
+      <c r="AH15" s="181"/>
+      <c r="AI15" s="182"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="196"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="204"/>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
-      <c r="T16" s="206"/>
-      <c r="U16" s="206"/>
-      <c r="V16" s="206"/>
-      <c r="W16" s="206"/>
-      <c r="X16" s="206"/>
-      <c r="Y16" s="206"/>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="206"/>
-      <c r="AB16" s="206"/>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="206"/>
-      <c r="AE16" s="207"/>
-      <c r="AF16" s="202"/>
-      <c r="AG16" s="203"/>
-      <c r="AH16" s="203"/>
-      <c r="AI16" s="204"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="184"/>
+      <c r="Y16" s="184"/>
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="184"/>
+      <c r="AB16" s="184"/>
+      <c r="AC16" s="184"/>
+      <c r="AD16" s="184"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="180"/>
+      <c r="AG16" s="181"/>
+      <c r="AH16" s="181"/>
+      <c r="AI16" s="182"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="204"/>
-      <c r="Q17" s="205"/>
-      <c r="R17" s="206"/>
-      <c r="S17" s="206"/>
-      <c r="T17" s="206"/>
-      <c r="U17" s="206"/>
-      <c r="V17" s="206"/>
-      <c r="W17" s="206"/>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="206"/>
-      <c r="Z17" s="206"/>
-      <c r="AA17" s="206"/>
-      <c r="AB17" s="206"/>
-      <c r="AC17" s="206"/>
-      <c r="AD17" s="206"/>
-      <c r="AE17" s="207"/>
-      <c r="AF17" s="202"/>
-      <c r="AG17" s="203"/>
-      <c r="AH17" s="203"/>
-      <c r="AI17" s="204"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="182"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="184"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="184"/>
+      <c r="W17" s="184"/>
+      <c r="X17" s="184"/>
+      <c r="Y17" s="184"/>
+      <c r="Z17" s="184"/>
+      <c r="AA17" s="184"/>
+      <c r="AB17" s="184"/>
+      <c r="AC17" s="184"/>
+      <c r="AD17" s="184"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="180"/>
+      <c r="AG17" s="181"/>
+      <c r="AH17" s="181"/>
+      <c r="AI17" s="182"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="204"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="206"/>
-      <c r="S18" s="206"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="206"/>
-      <c r="V18" s="206"/>
-      <c r="W18" s="206"/>
-      <c r="X18" s="206"/>
-      <c r="Y18" s="206"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="206"/>
-      <c r="AC18" s="206"/>
-      <c r="AD18" s="206"/>
-      <c r="AE18" s="207"/>
-      <c r="AF18" s="202"/>
-      <c r="AG18" s="203"/>
-      <c r="AH18" s="203"/>
-      <c r="AI18" s="204"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="184"/>
+      <c r="Y18" s="184"/>
+      <c r="Z18" s="184"/>
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="180"/>
+      <c r="AG18" s="181"/>
+      <c r="AH18" s="181"/>
+      <c r="AI18" s="182"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="206"/>
-      <c r="S19" s="206"/>
-      <c r="T19" s="206"/>
-      <c r="U19" s="206"/>
-      <c r="V19" s="206"/>
-      <c r="W19" s="206"/>
-      <c r="X19" s="206"/>
-      <c r="Y19" s="206"/>
-      <c r="Z19" s="206"/>
-      <c r="AA19" s="206"/>
-      <c r="AB19" s="206"/>
-      <c r="AC19" s="206"/>
-      <c r="AD19" s="206"/>
-      <c r="AE19" s="207"/>
-      <c r="AF19" s="202"/>
-      <c r="AG19" s="203"/>
-      <c r="AH19" s="203"/>
-      <c r="AI19" s="204"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="184"/>
+      <c r="S19" s="184"/>
+      <c r="T19" s="184"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="184"/>
+      <c r="W19" s="184"/>
+      <c r="X19" s="184"/>
+      <c r="Y19" s="184"/>
+      <c r="Z19" s="184"/>
+      <c r="AA19" s="184"/>
+      <c r="AB19" s="184"/>
+      <c r="AC19" s="184"/>
+      <c r="AD19" s="184"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="180"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="181"/>
+      <c r="AI19" s="182"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="203"/>
-      <c r="O20" s="203"/>
-      <c r="P20" s="204"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="206"/>
-      <c r="S20" s="206"/>
-      <c r="T20" s="206"/>
-      <c r="U20" s="206"/>
-      <c r="V20" s="206"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="206"/>
-      <c r="Y20" s="206"/>
-      <c r="Z20" s="206"/>
-      <c r="AA20" s="206"/>
-      <c r="AB20" s="206"/>
-      <c r="AC20" s="206"/>
-      <c r="AD20" s="206"/>
-      <c r="AE20" s="207"/>
-      <c r="AF20" s="202"/>
-      <c r="AG20" s="203"/>
-      <c r="AH20" s="203"/>
-      <c r="AI20" s="204"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
+      <c r="W20" s="184"/>
+      <c r="X20" s="184"/>
+      <c r="Y20" s="184"/>
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="184"/>
+      <c r="AB20" s="184"/>
+      <c r="AC20" s="184"/>
+      <c r="AD20" s="184"/>
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="180"/>
+      <c r="AG20" s="181"/>
+      <c r="AH20" s="181"/>
+      <c r="AI20" s="182"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="196"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
-      <c r="O21" s="203"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="206"/>
-      <c r="S21" s="206"/>
-      <c r="T21" s="206"/>
-      <c r="U21" s="206"/>
-      <c r="V21" s="206"/>
-      <c r="W21" s="206"/>
-      <c r="X21" s="206"/>
-      <c r="Y21" s="206"/>
-      <c r="Z21" s="206"/>
-      <c r="AA21" s="206"/>
-      <c r="AB21" s="206"/>
-      <c r="AC21" s="206"/>
-      <c r="AD21" s="206"/>
-      <c r="AE21" s="207"/>
-      <c r="AF21" s="202"/>
-      <c r="AG21" s="203"/>
-      <c r="AH21" s="203"/>
-      <c r="AI21" s="204"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="184"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="184"/>
+      <c r="AB21" s="184"/>
+      <c r="AC21" s="184"/>
+      <c r="AD21" s="184"/>
+      <c r="AE21" s="185"/>
+      <c r="AF21" s="180"/>
+      <c r="AG21" s="181"/>
+      <c r="AH21" s="181"/>
+      <c r="AI21" s="182"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="203"/>
-      <c r="O22" s="203"/>
-      <c r="P22" s="204"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="206"/>
-      <c r="S22" s="206"/>
-      <c r="T22" s="206"/>
-      <c r="U22" s="206"/>
-      <c r="V22" s="206"/>
-      <c r="W22" s="206"/>
-      <c r="X22" s="206"/>
-      <c r="Y22" s="206"/>
-      <c r="Z22" s="206"/>
-      <c r="AA22" s="206"/>
-      <c r="AB22" s="206"/>
-      <c r="AC22" s="206"/>
-      <c r="AD22" s="206"/>
-      <c r="AE22" s="207"/>
-      <c r="AF22" s="202"/>
-      <c r="AG22" s="203"/>
-      <c r="AH22" s="203"/>
-      <c r="AI22" s="204"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
+      <c r="AD22" s="184"/>
+      <c r="AE22" s="185"/>
+      <c r="AF22" s="180"/>
+      <c r="AG22" s="181"/>
+      <c r="AH22" s="181"/>
+      <c r="AI22" s="182"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
-      <c r="O23" s="203"/>
-      <c r="P23" s="204"/>
-      <c r="Q23" s="205"/>
-      <c r="R23" s="206"/>
-      <c r="S23" s="206"/>
-      <c r="T23" s="206"/>
-      <c r="U23" s="206"/>
-      <c r="V23" s="206"/>
-      <c r="W23" s="206"/>
-      <c r="X23" s="206"/>
-      <c r="Y23" s="206"/>
-      <c r="Z23" s="206"/>
-      <c r="AA23" s="206"/>
-      <c r="AB23" s="206"/>
-      <c r="AC23" s="206"/>
-      <c r="AD23" s="206"/>
-      <c r="AE23" s="207"/>
-      <c r="AF23" s="202"/>
-      <c r="AG23" s="203"/>
-      <c r="AH23" s="203"/>
-      <c r="AI23" s="204"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="184"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="184"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="184"/>
+      <c r="AD23" s="184"/>
+      <c r="AE23" s="185"/>
+      <c r="AF23" s="180"/>
+      <c r="AG23" s="181"/>
+      <c r="AH23" s="181"/>
+      <c r="AI23" s="182"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="196"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="203"/>
-      <c r="P24" s="204"/>
-      <c r="Q24" s="205"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
-      <c r="U24" s="206"/>
-      <c r="V24" s="206"/>
-      <c r="W24" s="206"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="206"/>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="206"/>
-      <c r="AB24" s="206"/>
-      <c r="AC24" s="206"/>
-      <c r="AD24" s="206"/>
-      <c r="AE24" s="207"/>
-      <c r="AF24" s="202"/>
-      <c r="AG24" s="203"/>
-      <c r="AH24" s="203"/>
-      <c r="AI24" s="204"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="184"/>
+      <c r="Y24" s="184"/>
+      <c r="Z24" s="184"/>
+      <c r="AA24" s="184"/>
+      <c r="AB24" s="184"/>
+      <c r="AC24" s="184"/>
+      <c r="AD24" s="184"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="180"/>
+      <c r="AG24" s="181"/>
+      <c r="AH24" s="181"/>
+      <c r="AI24" s="182"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="196"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
-      <c r="O25" s="203"/>
-      <c r="P25" s="204"/>
-      <c r="Q25" s="205"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
-      <c r="T25" s="206"/>
-      <c r="U25" s="206"/>
-      <c r="V25" s="206"/>
-      <c r="W25" s="206"/>
-      <c r="X25" s="206"/>
-      <c r="Y25" s="206"/>
-      <c r="Z25" s="206"/>
-      <c r="AA25" s="206"/>
-      <c r="AB25" s="206"/>
-      <c r="AC25" s="206"/>
-      <c r="AD25" s="206"/>
-      <c r="AE25" s="207"/>
-      <c r="AF25" s="202"/>
-      <c r="AG25" s="203"/>
-      <c r="AH25" s="203"/>
-      <c r="AI25" s="204"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
+      <c r="T25" s="184"/>
+      <c r="U25" s="184"/>
+      <c r="V25" s="184"/>
+      <c r="W25" s="184"/>
+      <c r="X25" s="184"/>
+      <c r="Y25" s="184"/>
+      <c r="Z25" s="184"/>
+      <c r="AA25" s="184"/>
+      <c r="AB25" s="184"/>
+      <c r="AC25" s="184"/>
+      <c r="AD25" s="184"/>
+      <c r="AE25" s="185"/>
+      <c r="AF25" s="180"/>
+      <c r="AG25" s="181"/>
+      <c r="AH25" s="181"/>
+      <c r="AI25" s="182"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="196"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="204"/>
-      <c r="Q26" s="205"/>
-      <c r="R26" s="206"/>
-      <c r="S26" s="206"/>
-      <c r="T26" s="206"/>
-      <c r="U26" s="206"/>
-      <c r="V26" s="206"/>
-      <c r="W26" s="206"/>
-      <c r="X26" s="206"/>
-      <c r="Y26" s="206"/>
-      <c r="Z26" s="206"/>
-      <c r="AA26" s="206"/>
-      <c r="AB26" s="206"/>
-      <c r="AC26" s="206"/>
-      <c r="AD26" s="206"/>
-      <c r="AE26" s="207"/>
-      <c r="AF26" s="202"/>
-      <c r="AG26" s="203"/>
-      <c r="AH26" s="203"/>
-      <c r="AI26" s="204"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="184"/>
+      <c r="X26" s="184"/>
+      <c r="Y26" s="184"/>
+      <c r="Z26" s="184"/>
+      <c r="AA26" s="184"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="184"/>
+      <c r="AD26" s="184"/>
+      <c r="AE26" s="185"/>
+      <c r="AF26" s="180"/>
+      <c r="AG26" s="181"/>
+      <c r="AH26" s="181"/>
+      <c r="AI26" s="182"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="196"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="203"/>
-      <c r="O27" s="203"/>
-      <c r="P27" s="204"/>
-      <c r="Q27" s="205"/>
-      <c r="R27" s="206"/>
-      <c r="S27" s="206"/>
-      <c r="T27" s="206"/>
-      <c r="U27" s="206"/>
-      <c r="V27" s="206"/>
-      <c r="W27" s="206"/>
-      <c r="X27" s="206"/>
-      <c r="Y27" s="206"/>
-      <c r="Z27" s="206"/>
-      <c r="AA27" s="206"/>
-      <c r="AB27" s="206"/>
-      <c r="AC27" s="206"/>
-      <c r="AD27" s="206"/>
-      <c r="AE27" s="207"/>
-      <c r="AF27" s="202"/>
-      <c r="AG27" s="203"/>
-      <c r="AH27" s="203"/>
-      <c r="AI27" s="204"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="184"/>
+      <c r="V27" s="184"/>
+      <c r="W27" s="184"/>
+      <c r="X27" s="184"/>
+      <c r="Y27" s="184"/>
+      <c r="Z27" s="184"/>
+      <c r="AA27" s="184"/>
+      <c r="AB27" s="184"/>
+      <c r="AC27" s="184"/>
+      <c r="AD27" s="184"/>
+      <c r="AE27" s="185"/>
+      <c r="AF27" s="180"/>
+      <c r="AG27" s="181"/>
+      <c r="AH27" s="181"/>
+      <c r="AI27" s="182"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="196"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="203"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="204"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="206"/>
-      <c r="S28" s="206"/>
-      <c r="T28" s="206"/>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="206"/>
-      <c r="X28" s="206"/>
-      <c r="Y28" s="206"/>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="206"/>
-      <c r="AC28" s="206"/>
-      <c r="AD28" s="206"/>
-      <c r="AE28" s="207"/>
-      <c r="AF28" s="202"/>
-      <c r="AG28" s="203"/>
-      <c r="AH28" s="203"/>
-      <c r="AI28" s="204"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="184"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="180"/>
+      <c r="AG28" s="181"/>
+      <c r="AH28" s="181"/>
+      <c r="AI28" s="182"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="203"/>
-      <c r="N29" s="203"/>
-      <c r="O29" s="203"/>
-      <c r="P29" s="204"/>
-      <c r="Q29" s="205"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="206"/>
-      <c r="T29" s="206"/>
-      <c r="U29" s="206"/>
-      <c r="V29" s="206"/>
-      <c r="W29" s="206"/>
-      <c r="X29" s="206"/>
-      <c r="Y29" s="206"/>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="206"/>
-      <c r="AC29" s="206"/>
-      <c r="AD29" s="206"/>
-      <c r="AE29" s="207"/>
-      <c r="AF29" s="202"/>
-      <c r="AG29" s="203"/>
-      <c r="AH29" s="203"/>
-      <c r="AI29" s="204"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="184"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="184"/>
+      <c r="V29" s="184"/>
+      <c r="W29" s="184"/>
+      <c r="X29" s="184"/>
+      <c r="Y29" s="184"/>
+      <c r="Z29" s="184"/>
+      <c r="AA29" s="184"/>
+      <c r="AB29" s="184"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="184"/>
+      <c r="AE29" s="185"/>
+      <c r="AF29" s="180"/>
+      <c r="AG29" s="181"/>
+      <c r="AH29" s="181"/>
+      <c r="AI29" s="182"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="203"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="203"/>
-      <c r="O30" s="203"/>
-      <c r="P30" s="204"/>
-      <c r="Q30" s="205"/>
-      <c r="R30" s="206"/>
-      <c r="S30" s="206"/>
-      <c r="T30" s="206"/>
-      <c r="U30" s="206"/>
-      <c r="V30" s="206"/>
-      <c r="W30" s="206"/>
-      <c r="X30" s="206"/>
-      <c r="Y30" s="206"/>
-      <c r="Z30" s="206"/>
-      <c r="AA30" s="206"/>
-      <c r="AB30" s="206"/>
-      <c r="AC30" s="206"/>
-      <c r="AD30" s="206"/>
-      <c r="AE30" s="207"/>
-      <c r="AF30" s="202"/>
-      <c r="AG30" s="203"/>
-      <c r="AH30" s="203"/>
-      <c r="AI30" s="204"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="184"/>
+      <c r="AC30" s="184"/>
+      <c r="AD30" s="184"/>
+      <c r="AE30" s="185"/>
+      <c r="AF30" s="180"/>
+      <c r="AG30" s="181"/>
+      <c r="AH30" s="181"/>
+      <c r="AI30" s="182"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="197"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="200"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="203"/>
-      <c r="L31" s="203"/>
-      <c r="M31" s="203"/>
-      <c r="N31" s="203"/>
-      <c r="O31" s="203"/>
-      <c r="P31" s="204"/>
-      <c r="Q31" s="205"/>
-      <c r="R31" s="206"/>
-      <c r="S31" s="206"/>
-      <c r="T31" s="206"/>
-      <c r="U31" s="206"/>
-      <c r="V31" s="206"/>
-      <c r="W31" s="206"/>
-      <c r="X31" s="206"/>
-      <c r="Y31" s="206"/>
-      <c r="Z31" s="206"/>
-      <c r="AA31" s="206"/>
-      <c r="AB31" s="206"/>
-      <c r="AC31" s="206"/>
-      <c r="AD31" s="206"/>
-      <c r="AE31" s="207"/>
-      <c r="AF31" s="202"/>
-      <c r="AG31" s="203"/>
-      <c r="AH31" s="203"/>
-      <c r="AI31" s="204"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="184"/>
+      <c r="V31" s="184"/>
+      <c r="W31" s="184"/>
+      <c r="X31" s="184"/>
+      <c r="Y31" s="184"/>
+      <c r="Z31" s="184"/>
+      <c r="AA31" s="184"/>
+      <c r="AB31" s="184"/>
+      <c r="AC31" s="184"/>
+      <c r="AD31" s="184"/>
+      <c r="AE31" s="185"/>
+      <c r="AF31" s="180"/>
+      <c r="AG31" s="181"/>
+      <c r="AH31" s="181"/>
+      <c r="AI31" s="182"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="196"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="200"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="217"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="203"/>
-      <c r="O32" s="203"/>
-      <c r="P32" s="204"/>
-      <c r="Q32" s="205"/>
-      <c r="R32" s="206"/>
-      <c r="S32" s="206"/>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="206"/>
-      <c r="Y32" s="206"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="206"/>
-      <c r="AE32" s="207"/>
-      <c r="AF32" s="202"/>
-      <c r="AG32" s="203"/>
-      <c r="AH32" s="203"/>
-      <c r="AI32" s="204"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="184"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="184"/>
+      <c r="W32" s="184"/>
+      <c r="X32" s="184"/>
+      <c r="Y32" s="184"/>
+      <c r="Z32" s="184"/>
+      <c r="AA32" s="184"/>
+      <c r="AB32" s="184"/>
+      <c r="AC32" s="184"/>
+      <c r="AD32" s="184"/>
+      <c r="AE32" s="185"/>
+      <c r="AF32" s="180"/>
+      <c r="AG32" s="181"/>
+      <c r="AH32" s="181"/>
+      <c r="AI32" s="182"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="196"/>
-      <c r="C33" s="197"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="203"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="204"/>
-      <c r="Q33" s="205"/>
-      <c r="R33" s="206"/>
-      <c r="S33" s="206"/>
-      <c r="T33" s="206"/>
-      <c r="U33" s="206"/>
-      <c r="V33" s="206"/>
-      <c r="W33" s="206"/>
-      <c r="X33" s="206"/>
-      <c r="Y33" s="206"/>
-      <c r="Z33" s="206"/>
-      <c r="AA33" s="206"/>
-      <c r="AB33" s="206"/>
-      <c r="AC33" s="206"/>
-      <c r="AD33" s="206"/>
-      <c r="AE33" s="207"/>
-      <c r="AF33" s="202"/>
-      <c r="AG33" s="203"/>
-      <c r="AH33" s="203"/>
-      <c r="AI33" s="204"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="184"/>
+      <c r="V33" s="184"/>
+      <c r="W33" s="184"/>
+      <c r="X33" s="184"/>
+      <c r="Y33" s="184"/>
+      <c r="Z33" s="184"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="184"/>
+      <c r="AD33" s="184"/>
+      <c r="AE33" s="185"/>
+      <c r="AF33" s="180"/>
+      <c r="AG33" s="181"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="182"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11866,6 +11722,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12934,7 +12945,7 @@
       <c r="J36" s="65" t="s">
         <v>507</v>
       </c>
-      <c r="K36" s="220"/>
+      <c r="K36" s="159"/>
       <c r="L36" s="67"/>
       <c r="M36" s="68"/>
       <c r="N36" s="68"/>
@@ -12968,7 +12979,7 @@
       <c r="J37" s="65" t="s">
         <v>507</v>
       </c>
-      <c r="K37" s="220"/>
+      <c r="K37" s="159"/>
       <c r="L37" s="67"/>
       <c r="M37" s="68"/>
       <c r="N37" s="68"/>
@@ -13005,7 +13016,7 @@
       <c r="K38" s="65"/>
       <c r="L38" s="67"/>
       <c r="M38" s="68"/>
-      <c r="N38" s="221"/>
+      <c r="N38" s="160"/>
       <c r="O38" s="68"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="68"/>
@@ -13027,7 +13038,7 @@
       <c r="C39" s="49"/>
       <c r="D39" s="53"/>
       <c r="E39" s="54"/>
-      <c r="F39" s="222" t="s">
+      <c r="F39" s="161" t="s">
         <v>88</v>
       </c>
       <c r="G39" s="65"/>
@@ -13038,10 +13049,10 @@
       </c>
       <c r="K39" s="65"/>
       <c r="L39" s="67"/>
-      <c r="M39" s="223"/>
-      <c r="N39" s="221"/>
-      <c r="O39" s="221"/>
-      <c r="P39" s="223"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="160"/>
+      <c r="O39" s="160"/>
+      <c r="P39" s="162"/>
       <c r="Q39" s="68"/>
     </row>
     <row r="40" spans="1:17" s="32" customFormat="1" ht="56.25">
@@ -15631,7 +15642,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="218" t="s">
+      <c r="B112" s="232" t="s">
         <v>193</v>
       </c>
       <c r="C112" s="56"/>
@@ -15667,7 +15678,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="218"/>
+      <c r="B113" s="232"/>
       <c r="C113" s="56"/>
       <c r="D113" s="43"/>
       <c r="E113" s="87"/>
@@ -16339,7 +16350,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="218" t="s">
+      <c r="B132" s="232" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="56"/>
@@ -16375,7 +16386,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="218"/>
+      <c r="B133" s="232"/>
       <c r="C133" s="56"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
@@ -21596,7 +21607,7 @@
         <v>95-4-1</v>
       </c>
       <c r="B282" s="50"/>
-      <c r="C282" s="224"/>
+      <c r="C282" s="163"/>
       <c r="D282" s="54"/>
       <c r="E282" s="54"/>
       <c r="F282" s="51" t="s">
@@ -22053,8 +22064,8 @@
 )</f>
         <v>100-9-1</v>
       </c>
-      <c r="B295" s="225"/>
-      <c r="C295" s="225"/>
+      <c r="B295" s="164"/>
+      <c r="C295" s="164"/>
       <c r="D295" s="53"/>
       <c r="E295" s="54"/>
       <c r="F295" s="51" t="s">
@@ -23449,7 +23460,7 @@
         <v>515</v>
       </c>
       <c r="K43" s="142" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="L43" s="144"/>
       <c r="M43" s="144"/>
@@ -23535,7 +23546,7 @@
         <v>501</v>
       </c>
       <c r="K45" s="142" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="L45" s="144"/>
       <c r="M45" s="144"/>
@@ -24684,10 +24695,10 @@
         <v>24-1-2</v>
       </c>
       <c r="B77" s="101"/>
-      <c r="C77" s="226"/>
+      <c r="C77" s="165"/>
       <c r="D77" s="101"/>
-      <c r="E77" s="227"/>
-      <c r="F77" s="227"/>
+      <c r="E77" s="166"/>
+      <c r="F77" s="166"/>
       <c r="G77" s="60"/>
       <c r="H77" s="60" t="s">
         <v>528</v>
@@ -24723,10 +24734,10 @@
         <v>24-1-3</v>
       </c>
       <c r="B78" s="101"/>
-      <c r="C78" s="226"/>
+      <c r="C78" s="165"/>
       <c r="D78" s="101"/>
-      <c r="E78" s="227"/>
-      <c r="F78" s="227"/>
+      <c r="E78" s="166"/>
+      <c r="F78" s="166"/>
       <c r="G78" s="60"/>
       <c r="H78" s="60" t="s">
         <v>528</v>
@@ -24762,10 +24773,10 @@
         <v>24-1-4</v>
       </c>
       <c r="B79" s="101"/>
-      <c r="C79" s="226"/>
+      <c r="C79" s="165"/>
       <c r="D79" s="101"/>
-      <c r="E79" s="228"/>
-      <c r="F79" s="228"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
       <c r="G79" s="60"/>
       <c r="H79" s="60" t="s">
         <v>528</v>
@@ -26270,7 +26281,7 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B119" s="219" t="s">
+      <c r="B119" s="233" t="s">
         <v>440</v>
       </c>
       <c r="C119" s="104"/>
@@ -26307,7 +26318,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B120" s="219"/>
+      <c r="B120" s="233"/>
       <c r="C120" s="104"/>
       <c r="D120" s="98"/>
       <c r="E120" s="115"/>
@@ -26998,7 +27009,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B139" s="219" t="s">
+      <c r="B139" s="233" t="s">
         <v>221</v>
       </c>
       <c r="C139" s="104"/>
@@ -27035,7 +27046,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B140" s="219"/>
+      <c r="B140" s="233"/>
       <c r="C140" s="104"/>
       <c r="D140" s="98"/>
       <c r="E140" s="104"/>
@@ -32309,7 +32320,7 @@
       <c r="G286" s="67"/>
       <c r="H286" s="68"/>
       <c r="I286" s="68"/>
-      <c r="J286" s="229" t="s">
+      <c r="J286" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K286" s="67"/>
@@ -32344,7 +32355,7 @@
       <c r="G287" s="67"/>
       <c r="H287" s="68"/>
       <c r="I287" s="68"/>
-      <c r="J287" s="229" t="s">
+      <c r="J287" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K287" s="67"/>
@@ -32379,7 +32390,7 @@
       <c r="G288" s="67"/>
       <c r="H288" s="68"/>
       <c r="I288" s="68"/>
-      <c r="J288" s="229" t="s">
+      <c r="J288" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K288" s="67"/>
@@ -32414,7 +32425,7 @@
       <c r="G289" s="67"/>
       <c r="H289" s="68"/>
       <c r="I289" s="68"/>
-      <c r="J289" s="229" t="s">
+      <c r="J289" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K289" s="67"/>
@@ -32455,7 +32466,7 @@
       <c r="G290" s="67"/>
       <c r="H290" s="68"/>
       <c r="I290" s="68"/>
-      <c r="J290" s="229" t="s">
+      <c r="J290" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K290" s="67"/>
@@ -32492,7 +32503,7 @@
       <c r="G291" s="67"/>
       <c r="H291" s="68"/>
       <c r="I291" s="68"/>
-      <c r="J291" s="229" t="s">
+      <c r="J291" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K291" s="67"/>
@@ -32529,7 +32540,7 @@
       <c r="G292" s="67"/>
       <c r="H292" s="68"/>
       <c r="I292" s="68"/>
-      <c r="J292" s="229" t="s">
+      <c r="J292" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K292" s="67"/>
@@ -32566,7 +32577,7 @@
       <c r="G293" s="67"/>
       <c r="H293" s="68"/>
       <c r="I293" s="68"/>
-      <c r="J293" s="229" t="s">
+      <c r="J293" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K293" s="67"/>
@@ -32605,7 +32616,7 @@
       <c r="G294" s="67"/>
       <c r="H294" s="68"/>
       <c r="I294" s="68"/>
-      <c r="J294" s="229" t="s">
+      <c r="J294" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K294" s="67"/>
@@ -32640,7 +32651,7 @@
       <c r="G295" s="67"/>
       <c r="H295" s="68"/>
       <c r="I295" s="68"/>
-      <c r="J295" s="229" t="s">
+      <c r="J295" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K295" s="67"/>
@@ -32675,7 +32686,7 @@
       <c r="G296" s="67"/>
       <c r="H296" s="68"/>
       <c r="I296" s="68"/>
-      <c r="J296" s="229" t="s">
+      <c r="J296" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K296" s="67"/>
@@ -32710,7 +32721,7 @@
       <c r="G297" s="67"/>
       <c r="H297" s="68"/>
       <c r="I297" s="68"/>
-      <c r="J297" s="229" t="s">
+      <c r="J297" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K297" s="67"/>
@@ -32745,7 +32756,7 @@
       <c r="G298" s="67"/>
       <c r="H298" s="68"/>
       <c r="I298" s="68"/>
-      <c r="J298" s="229" t="s">
+      <c r="J298" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K298" s="67"/>
@@ -32780,7 +32791,7 @@
       <c r="G299" s="67"/>
       <c r="H299" s="68"/>
       <c r="I299" s="68"/>
-      <c r="J299" s="229" t="s">
+      <c r="J299" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K299" s="67"/>
@@ -32815,7 +32826,7 @@
       <c r="G300" s="67"/>
       <c r="H300" s="68"/>
       <c r="I300" s="68"/>
-      <c r="J300" s="229" t="s">
+      <c r="J300" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K300" s="67"/>
@@ -32850,7 +32861,7 @@
       <c r="G301" s="67"/>
       <c r="H301" s="68"/>
       <c r="I301" s="68"/>
-      <c r="J301" s="229" t="s">
+      <c r="J301" s="168" t="s">
         <v>508</v>
       </c>
       <c r="K301" s="67"/>
@@ -32882,20 +32893,20 @@
       <c r="F302" s="97" t="s">
         <v>417</v>
       </c>
-      <c r="G302" s="230"/>
-      <c r="H302" s="231"/>
-      <c r="I302" s="231"/>
-      <c r="J302" s="229" t="s">
+      <c r="G302" s="169"/>
+      <c r="H302" s="170"/>
+      <c r="I302" s="170"/>
+      <c r="J302" s="168" t="s">
         <v>508</v>
       </c>
-      <c r="K302" s="230"/>
-      <c r="L302" s="231"/>
-      <c r="M302" s="231"/>
-      <c r="N302" s="231"/>
-      <c r="O302" s="231"/>
-      <c r="P302" s="231"/>
-      <c r="Q302" s="232"/>
-      <c r="R302" s="230"/>
+      <c r="K302" s="169"/>
+      <c r="L302" s="170"/>
+      <c r="M302" s="170"/>
+      <c r="N302" s="170"/>
+      <c r="O302" s="170"/>
+      <c r="P302" s="170"/>
+      <c r="Q302" s="171"/>
+      <c r="R302" s="169"/>
     </row>
     <row r="303" spans="1:18" ht="33.75">
       <c r="A303" s="136" t="str" cm="1">
@@ -33205,7 +33216,7 @@
       </c>
       <c r="B310" s="132"/>
       <c r="C310" s="132"/>
-      <c r="D310" s="230" t="s">
+      <c r="D310" s="169" t="s">
         <v>474</v>
       </c>
       <c r="E310" s="67" t="s">
@@ -33244,7 +33255,7 @@
       </c>
       <c r="B311" s="132"/>
       <c r="C311" s="132"/>
-      <c r="D311" s="233"/>
+      <c r="D311" s="172"/>
       <c r="E311" s="67" t="s">
         <v>476</v>
       </c>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB2FBC4-8B5C-473B-877C-AB341FDDE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C8340-CB18-4455-B3E7-E80D5565AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6715,17 +6715,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>以下のレスポンスが返される。
-・ステータスコード：201</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(a)システム機能設計書
 (b)メッセージ設計書
 (c)外部インタフェース設計書</t>
@@ -7568,27 +7557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のレスポンスが返される。
-・ステータスコード：201
-・レスポンスボディ：登録された顧客情報</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(a)システム機能設計書
 (b)外部インタフェース設計書
 (c)メッセージ設計書</t>
@@ -7754,8 +7722,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>以下のレスポンスが返される。
+・ステータスコード：200</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のレスポンスが返される。
+・ステータスコード：200
+・レスポンスボディ：登録された顧客情報</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>顧客が登録され、以下のレスポンスが返される。
-・ステータスコード：201</t>
+・ステータスコード：200</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
     </rPh>
@@ -8819,72 +8819,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8991,6 +8925,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10498,57 +10498,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="205" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="183" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="220" t="s">
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="198" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="221"/>
-      <c r="U1" s="221"/>
-      <c r="V1" s="221"/>
-      <c r="W1" s="221"/>
-      <c r="X1" s="221"/>
-      <c r="Y1" s="221"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="229" t="str">
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="207" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="231"/>
-      <c r="AG1" s="196" t="str">
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="174" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10556,53 +10556,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="183" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="208" t="str">
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="174" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10610,45 +10610,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="205" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="226"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="227"/>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="230"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="231"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10685,85 +10685,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="199" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="199" t="s">
+      <c r="E7" s="179"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="179"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="199" t="s">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
-      <c r="U7" s="201"/>
-      <c r="V7" s="201"/>
-      <c r="W7" s="201"/>
-      <c r="X7" s="201"/>
-      <c r="Y7" s="201"/>
-      <c r="Z7" s="201"/>
-      <c r="AA7" s="201"/>
-      <c r="AB7" s="201"/>
-      <c r="AC7" s="201"/>
-      <c r="AD7" s="201"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="199" t="s">
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="201"/>
-      <c r="AH7" s="201"/>
-      <c r="AI7" s="200"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="178"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="194"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="194"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="194"/>
-      <c r="U8" s="194"/>
-      <c r="V8" s="194"/>
-      <c r="W8" s="194"/>
-      <c r="X8" s="194"/>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="194"/>
-      <c r="AA8" s="194"/>
-      <c r="AB8" s="194"/>
-      <c r="AC8" s="194"/>
-      <c r="AD8" s="194"/>
-      <c r="AE8" s="195"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="229"/>
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="229"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="229"/>
+      <c r="AE8" s="230"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10771,934 +10771,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="184"/>
-      <c r="W9" s="184"/>
-      <c r="X9" s="184"/>
-      <c r="Y9" s="184"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="184"/>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="185"/>
-      <c r="AF9" s="180"/>
-      <c r="AG9" s="181"/>
-      <c r="AH9" s="181"/>
-      <c r="AI9" s="182"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="220"/>
+      <c r="X9" s="220"/>
+      <c r="Y9" s="220"/>
+      <c r="Z9" s="220"/>
+      <c r="AA9" s="220"/>
+      <c r="AB9" s="220"/>
+      <c r="AC9" s="220"/>
+      <c r="AD9" s="220"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="216"/>
+      <c r="AG9" s="217"/>
+      <c r="AH9" s="217"/>
+      <c r="AI9" s="218"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="184"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="184"/>
-      <c r="Y10" s="184"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="184"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="180"/>
-      <c r="AG10" s="181"/>
-      <c r="AH10" s="181"/>
-      <c r="AI10" s="182"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="218"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="220"/>
+      <c r="S10" s="220"/>
+      <c r="T10" s="220"/>
+      <c r="U10" s="220"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="220"/>
+      <c r="Y10" s="220"/>
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="220"/>
+      <c r="AB10" s="220"/>
+      <c r="AC10" s="220"/>
+      <c r="AD10" s="220"/>
+      <c r="AE10" s="221"/>
+      <c r="AF10" s="216"/>
+      <c r="AG10" s="217"/>
+      <c r="AH10" s="217"/>
+      <c r="AI10" s="218"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="174"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="182"/>
-      <c r="Q11" s="183"/>
-      <c r="R11" s="184"/>
-      <c r="S11" s="184"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="184"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="184"/>
-      <c r="Y11" s="184"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="184"/>
-      <c r="AD11" s="184"/>
-      <c r="AE11" s="185"/>
-      <c r="AF11" s="180"/>
-      <c r="AG11" s="181"/>
-      <c r="AH11" s="181"/>
-      <c r="AI11" s="182"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="217"/>
+      <c r="L11" s="217"/>
+      <c r="M11" s="217"/>
+      <c r="N11" s="217"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="218"/>
+      <c r="Q11" s="219"/>
+      <c r="R11" s="220"/>
+      <c r="S11" s="220"/>
+      <c r="T11" s="220"/>
+      <c r="U11" s="220"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="220"/>
+      <c r="X11" s="220"/>
+      <c r="Y11" s="220"/>
+      <c r="Z11" s="220"/>
+      <c r="AA11" s="220"/>
+      <c r="AB11" s="220"/>
+      <c r="AC11" s="220"/>
+      <c r="AD11" s="220"/>
+      <c r="AE11" s="221"/>
+      <c r="AF11" s="216"/>
+      <c r="AG11" s="217"/>
+      <c r="AH11" s="217"/>
+      <c r="AI11" s="218"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="174"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="184"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="184"/>
-      <c r="V12" s="184"/>
-      <c r="W12" s="184"/>
-      <c r="X12" s="184"/>
-      <c r="Y12" s="184"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="184"/>
-      <c r="AD12" s="184"/>
-      <c r="AE12" s="185"/>
-      <c r="AF12" s="180"/>
-      <c r="AG12" s="181"/>
-      <c r="AH12" s="181"/>
-      <c r="AI12" s="182"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="217"/>
+      <c r="M12" s="217"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="219"/>
+      <c r="R12" s="220"/>
+      <c r="S12" s="220"/>
+      <c r="T12" s="220"/>
+      <c r="U12" s="220"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="220"/>
+      <c r="X12" s="220"/>
+      <c r="Y12" s="220"/>
+      <c r="Z12" s="220"/>
+      <c r="AA12" s="220"/>
+      <c r="AB12" s="220"/>
+      <c r="AC12" s="220"/>
+      <c r="AD12" s="220"/>
+      <c r="AE12" s="221"/>
+      <c r="AF12" s="216"/>
+      <c r="AG12" s="217"/>
+      <c r="AH12" s="217"/>
+      <c r="AI12" s="218"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="183"/>
-      <c r="R13" s="184"/>
-      <c r="S13" s="184"/>
-      <c r="T13" s="184"/>
-      <c r="U13" s="184"/>
-      <c r="V13" s="184"/>
-      <c r="W13" s="184"/>
-      <c r="X13" s="184"/>
-      <c r="Y13" s="184"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="184"/>
-      <c r="AD13" s="184"/>
-      <c r="AE13" s="185"/>
-      <c r="AF13" s="180"/>
-      <c r="AG13" s="181"/>
-      <c r="AH13" s="181"/>
-      <c r="AI13" s="182"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="217"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="217"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="218"/>
+      <c r="Q13" s="219"/>
+      <c r="R13" s="220"/>
+      <c r="S13" s="220"/>
+      <c r="T13" s="220"/>
+      <c r="U13" s="220"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="220"/>
+      <c r="X13" s="220"/>
+      <c r="Y13" s="220"/>
+      <c r="Z13" s="220"/>
+      <c r="AA13" s="220"/>
+      <c r="AB13" s="220"/>
+      <c r="AC13" s="220"/>
+      <c r="AD13" s="220"/>
+      <c r="AE13" s="221"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="217"/>
+      <c r="AH13" s="217"/>
+      <c r="AI13" s="218"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="183"/>
-      <c r="R14" s="184"/>
-      <c r="S14" s="184"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="184"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="184"/>
-      <c r="X14" s="184"/>
-      <c r="Y14" s="184"/>
-      <c r="Z14" s="184"/>
-      <c r="AA14" s="184"/>
-      <c r="AB14" s="184"/>
-      <c r="AC14" s="184"/>
-      <c r="AD14" s="184"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="180"/>
-      <c r="AG14" s="181"/>
-      <c r="AH14" s="181"/>
-      <c r="AI14" s="182"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="220"/>
+      <c r="S14" s="220"/>
+      <c r="T14" s="220"/>
+      <c r="U14" s="220"/>
+      <c r="V14" s="220"/>
+      <c r="W14" s="220"/>
+      <c r="X14" s="220"/>
+      <c r="Y14" s="220"/>
+      <c r="Z14" s="220"/>
+      <c r="AA14" s="220"/>
+      <c r="AB14" s="220"/>
+      <c r="AC14" s="220"/>
+      <c r="AD14" s="220"/>
+      <c r="AE14" s="221"/>
+      <c r="AF14" s="216"/>
+      <c r="AG14" s="217"/>
+      <c r="AH14" s="217"/>
+      <c r="AI14" s="218"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="183"/>
-      <c r="R15" s="184"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="184"/>
-      <c r="U15" s="184"/>
-      <c r="V15" s="184"/>
-      <c r="W15" s="184"/>
-      <c r="X15" s="184"/>
-      <c r="Y15" s="184"/>
-      <c r="Z15" s="184"/>
-      <c r="AA15" s="184"/>
-      <c r="AB15" s="184"/>
-      <c r="AC15" s="184"/>
-      <c r="AD15" s="184"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="180"/>
-      <c r="AG15" s="181"/>
-      <c r="AH15" s="181"/>
-      <c r="AI15" s="182"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="217"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="220"/>
+      <c r="S15" s="220"/>
+      <c r="T15" s="220"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="220"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="220"/>
+      <c r="Y15" s="220"/>
+      <c r="Z15" s="220"/>
+      <c r="AA15" s="220"/>
+      <c r="AB15" s="220"/>
+      <c r="AC15" s="220"/>
+      <c r="AD15" s="220"/>
+      <c r="AE15" s="221"/>
+      <c r="AF15" s="216"/>
+      <c r="AG15" s="217"/>
+      <c r="AH15" s="217"/>
+      <c r="AI15" s="218"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="184"/>
-      <c r="S16" s="184"/>
-      <c r="T16" s="184"/>
-      <c r="U16" s="184"/>
-      <c r="V16" s="184"/>
-      <c r="W16" s="184"/>
-      <c r="X16" s="184"/>
-      <c r="Y16" s="184"/>
-      <c r="Z16" s="184"/>
-      <c r="AA16" s="184"/>
-      <c r="AB16" s="184"/>
-      <c r="AC16" s="184"/>
-      <c r="AD16" s="184"/>
-      <c r="AE16" s="185"/>
-      <c r="AF16" s="180"/>
-      <c r="AG16" s="181"/>
-      <c r="AH16" s="181"/>
-      <c r="AI16" s="182"/>
+      <c r="B16" s="210"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="217"/>
+      <c r="L16" s="217"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="217"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="218"/>
+      <c r="Q16" s="219"/>
+      <c r="R16" s="220"/>
+      <c r="S16" s="220"/>
+      <c r="T16" s="220"/>
+      <c r="U16" s="220"/>
+      <c r="V16" s="220"/>
+      <c r="W16" s="220"/>
+      <c r="X16" s="220"/>
+      <c r="Y16" s="220"/>
+      <c r="Z16" s="220"/>
+      <c r="AA16" s="220"/>
+      <c r="AB16" s="220"/>
+      <c r="AC16" s="220"/>
+      <c r="AD16" s="220"/>
+      <c r="AE16" s="221"/>
+      <c r="AF16" s="216"/>
+      <c r="AG16" s="217"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="218"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="182"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="184"/>
-      <c r="S17" s="184"/>
-      <c r="T17" s="184"/>
-      <c r="U17" s="184"/>
-      <c r="V17" s="184"/>
-      <c r="W17" s="184"/>
-      <c r="X17" s="184"/>
-      <c r="Y17" s="184"/>
-      <c r="Z17" s="184"/>
-      <c r="AA17" s="184"/>
-      <c r="AB17" s="184"/>
-      <c r="AC17" s="184"/>
-      <c r="AD17" s="184"/>
-      <c r="AE17" s="185"/>
-      <c r="AF17" s="180"/>
-      <c r="AG17" s="181"/>
-      <c r="AH17" s="181"/>
-      <c r="AI17" s="182"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="217"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="220"/>
+      <c r="S17" s="220"/>
+      <c r="T17" s="220"/>
+      <c r="U17" s="220"/>
+      <c r="V17" s="220"/>
+      <c r="W17" s="220"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="220"/>
+      <c r="AA17" s="220"/>
+      <c r="AB17" s="220"/>
+      <c r="AC17" s="220"/>
+      <c r="AD17" s="220"/>
+      <c r="AE17" s="221"/>
+      <c r="AF17" s="216"/>
+      <c r="AG17" s="217"/>
+      <c r="AH17" s="217"/>
+      <c r="AI17" s="218"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="184"/>
-      <c r="S18" s="184"/>
-      <c r="T18" s="184"/>
-      <c r="U18" s="184"/>
-      <c r="V18" s="184"/>
-      <c r="W18" s="184"/>
-      <c r="X18" s="184"/>
-      <c r="Y18" s="184"/>
-      <c r="Z18" s="184"/>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="184"/>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="185"/>
-      <c r="AF18" s="180"/>
-      <c r="AG18" s="181"/>
-      <c r="AH18" s="181"/>
-      <c r="AI18" s="182"/>
+      <c r="B18" s="210"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="217"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="220"/>
+      <c r="T18" s="220"/>
+      <c r="U18" s="220"/>
+      <c r="V18" s="220"/>
+      <c r="W18" s="220"/>
+      <c r="X18" s="220"/>
+      <c r="Y18" s="220"/>
+      <c r="Z18" s="220"/>
+      <c r="AA18" s="220"/>
+      <c r="AB18" s="220"/>
+      <c r="AC18" s="220"/>
+      <c r="AD18" s="220"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="216"/>
+      <c r="AG18" s="217"/>
+      <c r="AH18" s="217"/>
+      <c r="AI18" s="218"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="184"/>
-      <c r="S19" s="184"/>
-      <c r="T19" s="184"/>
-      <c r="U19" s="184"/>
-      <c r="V19" s="184"/>
-      <c r="W19" s="184"/>
-      <c r="X19" s="184"/>
-      <c r="Y19" s="184"/>
-      <c r="Z19" s="184"/>
-      <c r="AA19" s="184"/>
-      <c r="AB19" s="184"/>
-      <c r="AC19" s="184"/>
-      <c r="AD19" s="184"/>
-      <c r="AE19" s="185"/>
-      <c r="AF19" s="180"/>
-      <c r="AG19" s="181"/>
-      <c r="AH19" s="181"/>
-      <c r="AI19" s="182"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="217"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="218"/>
+      <c r="Q19" s="219"/>
+      <c r="R19" s="220"/>
+      <c r="S19" s="220"/>
+      <c r="T19" s="220"/>
+      <c r="U19" s="220"/>
+      <c r="V19" s="220"/>
+      <c r="W19" s="220"/>
+      <c r="X19" s="220"/>
+      <c r="Y19" s="220"/>
+      <c r="Z19" s="220"/>
+      <c r="AA19" s="220"/>
+      <c r="AB19" s="220"/>
+      <c r="AC19" s="220"/>
+      <c r="AD19" s="220"/>
+      <c r="AE19" s="221"/>
+      <c r="AF19" s="216"/>
+      <c r="AG19" s="217"/>
+      <c r="AH19" s="217"/>
+      <c r="AI19" s="218"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="183"/>
-      <c r="R20" s="184"/>
-      <c r="S20" s="184"/>
-      <c r="T20" s="184"/>
-      <c r="U20" s="184"/>
-      <c r="V20" s="184"/>
-      <c r="W20" s="184"/>
-      <c r="X20" s="184"/>
-      <c r="Y20" s="184"/>
-      <c r="Z20" s="184"/>
-      <c r="AA20" s="184"/>
-      <c r="AB20" s="184"/>
-      <c r="AC20" s="184"/>
-      <c r="AD20" s="184"/>
-      <c r="AE20" s="185"/>
-      <c r="AF20" s="180"/>
-      <c r="AG20" s="181"/>
-      <c r="AH20" s="181"/>
-      <c r="AI20" s="182"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="217"/>
+      <c r="L20" s="217"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="218"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="220"/>
+      <c r="S20" s="220"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="221"/>
+      <c r="AF20" s="216"/>
+      <c r="AG20" s="217"/>
+      <c r="AH20" s="217"/>
+      <c r="AI20" s="218"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="183"/>
-      <c r="R21" s="184"/>
-      <c r="S21" s="184"/>
-      <c r="T21" s="184"/>
-      <c r="U21" s="184"/>
-      <c r="V21" s="184"/>
-      <c r="W21" s="184"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="184"/>
-      <c r="Z21" s="184"/>
-      <c r="AA21" s="184"/>
-      <c r="AB21" s="184"/>
-      <c r="AC21" s="184"/>
-      <c r="AD21" s="184"/>
-      <c r="AE21" s="185"/>
-      <c r="AF21" s="180"/>
-      <c r="AG21" s="181"/>
-      <c r="AH21" s="181"/>
-      <c r="AI21" s="182"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="219"/>
+      <c r="R21" s="220"/>
+      <c r="S21" s="220"/>
+      <c r="T21" s="220"/>
+      <c r="U21" s="220"/>
+      <c r="V21" s="220"/>
+      <c r="W21" s="220"/>
+      <c r="X21" s="220"/>
+      <c r="Y21" s="220"/>
+      <c r="Z21" s="220"/>
+      <c r="AA21" s="220"/>
+      <c r="AB21" s="220"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="220"/>
+      <c r="AE21" s="221"/>
+      <c r="AF21" s="216"/>
+      <c r="AG21" s="217"/>
+      <c r="AH21" s="217"/>
+      <c r="AI21" s="218"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="184"/>
-      <c r="S22" s="184"/>
-      <c r="T22" s="184"/>
-      <c r="U22" s="184"/>
-      <c r="V22" s="184"/>
-      <c r="W22" s="184"/>
-      <c r="X22" s="184"/>
-      <c r="Y22" s="184"/>
-      <c r="Z22" s="184"/>
-      <c r="AA22" s="184"/>
-      <c r="AB22" s="184"/>
-      <c r="AC22" s="184"/>
-      <c r="AD22" s="184"/>
-      <c r="AE22" s="185"/>
-      <c r="AF22" s="180"/>
-      <c r="AG22" s="181"/>
-      <c r="AH22" s="181"/>
-      <c r="AI22" s="182"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="217"/>
+      <c r="L22" s="217"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="220"/>
+      <c r="W22" s="220"/>
+      <c r="X22" s="220"/>
+      <c r="Y22" s="220"/>
+      <c r="Z22" s="220"/>
+      <c r="AA22" s="220"/>
+      <c r="AB22" s="220"/>
+      <c r="AC22" s="220"/>
+      <c r="AD22" s="220"/>
+      <c r="AE22" s="221"/>
+      <c r="AF22" s="216"/>
+      <c r="AG22" s="217"/>
+      <c r="AH22" s="217"/>
+      <c r="AI22" s="218"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="184"/>
-      <c r="S23" s="184"/>
-      <c r="T23" s="184"/>
-      <c r="U23" s="184"/>
-      <c r="V23" s="184"/>
-      <c r="W23" s="184"/>
-      <c r="X23" s="184"/>
-      <c r="Y23" s="184"/>
-      <c r="Z23" s="184"/>
-      <c r="AA23" s="184"/>
-      <c r="AB23" s="184"/>
-      <c r="AC23" s="184"/>
-      <c r="AD23" s="184"/>
-      <c r="AE23" s="185"/>
-      <c r="AF23" s="180"/>
-      <c r="AG23" s="181"/>
-      <c r="AH23" s="181"/>
-      <c r="AI23" s="182"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="219"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="220"/>
+      <c r="T23" s="220"/>
+      <c r="U23" s="220"/>
+      <c r="V23" s="220"/>
+      <c r="W23" s="220"/>
+      <c r="X23" s="220"/>
+      <c r="Y23" s="220"/>
+      <c r="Z23" s="220"/>
+      <c r="AA23" s="220"/>
+      <c r="AB23" s="220"/>
+      <c r="AC23" s="220"/>
+      <c r="AD23" s="220"/>
+      <c r="AE23" s="221"/>
+      <c r="AF23" s="216"/>
+      <c r="AG23" s="217"/>
+      <c r="AH23" s="217"/>
+      <c r="AI23" s="218"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="183"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="184"/>
-      <c r="W24" s="184"/>
-      <c r="X24" s="184"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="184"/>
-      <c r="AB24" s="184"/>
-      <c r="AC24" s="184"/>
-      <c r="AD24" s="184"/>
-      <c r="AE24" s="185"/>
-      <c r="AF24" s="180"/>
-      <c r="AG24" s="181"/>
-      <c r="AH24" s="181"/>
-      <c r="AI24" s="182"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="217"/>
+      <c r="L24" s="217"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="219"/>
+      <c r="R24" s="220"/>
+      <c r="S24" s="220"/>
+      <c r="T24" s="220"/>
+      <c r="U24" s="220"/>
+      <c r="V24" s="220"/>
+      <c r="W24" s="220"/>
+      <c r="X24" s="220"/>
+      <c r="Y24" s="220"/>
+      <c r="Z24" s="220"/>
+      <c r="AA24" s="220"/>
+      <c r="AB24" s="220"/>
+      <c r="AC24" s="220"/>
+      <c r="AD24" s="220"/>
+      <c r="AE24" s="221"/>
+      <c r="AF24" s="216"/>
+      <c r="AG24" s="217"/>
+      <c r="AH24" s="217"/>
+      <c r="AI24" s="218"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="174"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="181"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="184"/>
-      <c r="S25" s="184"/>
-      <c r="T25" s="184"/>
-      <c r="U25" s="184"/>
-      <c r="V25" s="184"/>
-      <c r="W25" s="184"/>
-      <c r="X25" s="184"/>
-      <c r="Y25" s="184"/>
-      <c r="Z25" s="184"/>
-      <c r="AA25" s="184"/>
-      <c r="AB25" s="184"/>
-      <c r="AC25" s="184"/>
-      <c r="AD25" s="184"/>
-      <c r="AE25" s="185"/>
-      <c r="AF25" s="180"/>
-      <c r="AG25" s="181"/>
-      <c r="AH25" s="181"/>
-      <c r="AI25" s="182"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="217"/>
+      <c r="L25" s="217"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="217"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="218"/>
+      <c r="Q25" s="219"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+      <c r="U25" s="220"/>
+      <c r="V25" s="220"/>
+      <c r="W25" s="220"/>
+      <c r="X25" s="220"/>
+      <c r="Y25" s="220"/>
+      <c r="Z25" s="220"/>
+      <c r="AA25" s="220"/>
+      <c r="AB25" s="220"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="220"/>
+      <c r="AE25" s="221"/>
+      <c r="AF25" s="216"/>
+      <c r="AG25" s="217"/>
+      <c r="AH25" s="217"/>
+      <c r="AI25" s="218"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="184"/>
-      <c r="S26" s="184"/>
-      <c r="T26" s="184"/>
-      <c r="U26" s="184"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="184"/>
-      <c r="X26" s="184"/>
-      <c r="Y26" s="184"/>
-      <c r="Z26" s="184"/>
-      <c r="AA26" s="184"/>
-      <c r="AB26" s="184"/>
-      <c r="AC26" s="184"/>
-      <c r="AD26" s="184"/>
-      <c r="AE26" s="185"/>
-      <c r="AF26" s="180"/>
-      <c r="AG26" s="181"/>
-      <c r="AH26" s="181"/>
-      <c r="AI26" s="182"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
+      <c r="M26" s="217"/>
+      <c r="N26" s="217"/>
+      <c r="O26" s="217"/>
+      <c r="P26" s="218"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="220"/>
+      <c r="S26" s="220"/>
+      <c r="T26" s="220"/>
+      <c r="U26" s="220"/>
+      <c r="V26" s="220"/>
+      <c r="W26" s="220"/>
+      <c r="X26" s="220"/>
+      <c r="Y26" s="220"/>
+      <c r="Z26" s="220"/>
+      <c r="AA26" s="220"/>
+      <c r="AB26" s="220"/>
+      <c r="AC26" s="220"/>
+      <c r="AD26" s="220"/>
+      <c r="AE26" s="221"/>
+      <c r="AF26" s="216"/>
+      <c r="AG26" s="217"/>
+      <c r="AH26" s="217"/>
+      <c r="AI26" s="218"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="184"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="184"/>
-      <c r="U27" s="184"/>
-      <c r="V27" s="184"/>
-      <c r="W27" s="184"/>
-      <c r="X27" s="184"/>
-      <c r="Y27" s="184"/>
-      <c r="Z27" s="184"/>
-      <c r="AA27" s="184"/>
-      <c r="AB27" s="184"/>
-      <c r="AC27" s="184"/>
-      <c r="AD27" s="184"/>
-      <c r="AE27" s="185"/>
-      <c r="AF27" s="180"/>
-      <c r="AG27" s="181"/>
-      <c r="AH27" s="181"/>
-      <c r="AI27" s="182"/>
+      <c r="B27" s="210"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="217"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="217"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="218"/>
+      <c r="Q27" s="219"/>
+      <c r="R27" s="220"/>
+      <c r="S27" s="220"/>
+      <c r="T27" s="220"/>
+      <c r="U27" s="220"/>
+      <c r="V27" s="220"/>
+      <c r="W27" s="220"/>
+      <c r="X27" s="220"/>
+      <c r="Y27" s="220"/>
+      <c r="Z27" s="220"/>
+      <c r="AA27" s="220"/>
+      <c r="AB27" s="220"/>
+      <c r="AC27" s="220"/>
+      <c r="AD27" s="220"/>
+      <c r="AE27" s="221"/>
+      <c r="AF27" s="216"/>
+      <c r="AG27" s="217"/>
+      <c r="AH27" s="217"/>
+      <c r="AI27" s="218"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="183"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="184"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="185"/>
-      <c r="AF28" s="180"/>
-      <c r="AG28" s="181"/>
-      <c r="AH28" s="181"/>
-      <c r="AI28" s="182"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="217"/>
+      <c r="M28" s="217"/>
+      <c r="N28" s="217"/>
+      <c r="O28" s="217"/>
+      <c r="P28" s="218"/>
+      <c r="Q28" s="219"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="220"/>
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="220"/>
+      <c r="AB28" s="220"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="220"/>
+      <c r="AE28" s="221"/>
+      <c r="AF28" s="216"/>
+      <c r="AG28" s="217"/>
+      <c r="AH28" s="217"/>
+      <c r="AI28" s="218"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="184"/>
-      <c r="S29" s="184"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="184"/>
-      <c r="V29" s="184"/>
-      <c r="W29" s="184"/>
-      <c r="X29" s="184"/>
-      <c r="Y29" s="184"/>
-      <c r="Z29" s="184"/>
-      <c r="AA29" s="184"/>
-      <c r="AB29" s="184"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="184"/>
-      <c r="AE29" s="185"/>
-      <c r="AF29" s="180"/>
-      <c r="AG29" s="181"/>
-      <c r="AH29" s="181"/>
-      <c r="AI29" s="182"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="217"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="217"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="218"/>
+      <c r="Q29" s="219"/>
+      <c r="R29" s="220"/>
+      <c r="S29" s="220"/>
+      <c r="T29" s="220"/>
+      <c r="U29" s="220"/>
+      <c r="V29" s="220"/>
+      <c r="W29" s="220"/>
+      <c r="X29" s="220"/>
+      <c r="Y29" s="220"/>
+      <c r="Z29" s="220"/>
+      <c r="AA29" s="220"/>
+      <c r="AB29" s="220"/>
+      <c r="AC29" s="220"/>
+      <c r="AD29" s="220"/>
+      <c r="AE29" s="221"/>
+      <c r="AF29" s="216"/>
+      <c r="AG29" s="217"/>
+      <c r="AH29" s="217"/>
+      <c r="AI29" s="218"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="184"/>
-      <c r="AD30" s="184"/>
-      <c r="AE30" s="185"/>
-      <c r="AF30" s="180"/>
-      <c r="AG30" s="181"/>
-      <c r="AH30" s="181"/>
-      <c r="AI30" s="182"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
+      <c r="M30" s="217"/>
+      <c r="N30" s="217"/>
+      <c r="O30" s="217"/>
+      <c r="P30" s="218"/>
+      <c r="Q30" s="219"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="220"/>
+      <c r="U30" s="220"/>
+      <c r="V30" s="220"/>
+      <c r="W30" s="220"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="220"/>
+      <c r="Z30" s="220"/>
+      <c r="AA30" s="220"/>
+      <c r="AB30" s="220"/>
+      <c r="AC30" s="220"/>
+      <c r="AD30" s="220"/>
+      <c r="AE30" s="221"/>
+      <c r="AF30" s="216"/>
+      <c r="AG30" s="217"/>
+      <c r="AH30" s="217"/>
+      <c r="AI30" s="218"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="184"/>
-      <c r="V31" s="184"/>
-      <c r="W31" s="184"/>
-      <c r="X31" s="184"/>
-      <c r="Y31" s="184"/>
-      <c r="Z31" s="184"/>
-      <c r="AA31" s="184"/>
-      <c r="AB31" s="184"/>
-      <c r="AC31" s="184"/>
-      <c r="AD31" s="184"/>
-      <c r="AE31" s="185"/>
-      <c r="AF31" s="180"/>
-      <c r="AG31" s="181"/>
-      <c r="AH31" s="181"/>
-      <c r="AI31" s="182"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="218"/>
+      <c r="Q31" s="219"/>
+      <c r="R31" s="220"/>
+      <c r="S31" s="220"/>
+      <c r="T31" s="220"/>
+      <c r="U31" s="220"/>
+      <c r="V31" s="220"/>
+      <c r="W31" s="220"/>
+      <c r="X31" s="220"/>
+      <c r="Y31" s="220"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="220"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="220"/>
+      <c r="AE31" s="221"/>
+      <c r="AF31" s="216"/>
+      <c r="AG31" s="217"/>
+      <c r="AH31" s="217"/>
+      <c r="AI31" s="218"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="186"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="183"/>
-      <c r="R32" s="184"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="184"/>
-      <c r="U32" s="184"/>
-      <c r="V32" s="184"/>
-      <c r="W32" s="184"/>
-      <c r="X32" s="184"/>
-      <c r="Y32" s="184"/>
-      <c r="Z32" s="184"/>
-      <c r="AA32" s="184"/>
-      <c r="AB32" s="184"/>
-      <c r="AC32" s="184"/>
-      <c r="AD32" s="184"/>
-      <c r="AE32" s="185"/>
-      <c r="AF32" s="180"/>
-      <c r="AG32" s="181"/>
-      <c r="AH32" s="181"/>
-      <c r="AI32" s="182"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="218"/>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="220"/>
+      <c r="S32" s="220"/>
+      <c r="T32" s="220"/>
+      <c r="U32" s="220"/>
+      <c r="V32" s="220"/>
+      <c r="W32" s="220"/>
+      <c r="X32" s="220"/>
+      <c r="Y32" s="220"/>
+      <c r="Z32" s="220"/>
+      <c r="AA32" s="220"/>
+      <c r="AB32" s="220"/>
+      <c r="AC32" s="220"/>
+      <c r="AD32" s="220"/>
+      <c r="AE32" s="221"/>
+      <c r="AF32" s="216"/>
+      <c r="AG32" s="217"/>
+      <c r="AH32" s="217"/>
+      <c r="AI32" s="218"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="183"/>
-      <c r="R33" s="184"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="184"/>
-      <c r="V33" s="184"/>
-      <c r="W33" s="184"/>
-      <c r="X33" s="184"/>
-      <c r="Y33" s="184"/>
-      <c r="Z33" s="184"/>
-      <c r="AA33" s="184"/>
-      <c r="AB33" s="184"/>
-      <c r="AC33" s="184"/>
-      <c r="AD33" s="184"/>
-      <c r="AE33" s="185"/>
-      <c r="AF33" s="180"/>
-      <c r="AG33" s="181"/>
-      <c r="AH33" s="181"/>
-      <c r="AI33" s="182"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="217"/>
+      <c r="P33" s="218"/>
+      <c r="Q33" s="219"/>
+      <c r="R33" s="220"/>
+      <c r="S33" s="220"/>
+      <c r="T33" s="220"/>
+      <c r="U33" s="220"/>
+      <c r="V33" s="220"/>
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="220"/>
+      <c r="Z33" s="220"/>
+      <c r="AA33" s="220"/>
+      <c r="AB33" s="220"/>
+      <c r="AC33" s="220"/>
+      <c r="AD33" s="220"/>
+      <c r="AE33" s="221"/>
+      <c r="AF33" s="216"/>
+      <c r="AG33" s="217"/>
+      <c r="AH33" s="217"/>
+      <c r="AI33" s="218"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11722,161 +11877,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
       <c r="J36" s="65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K36" s="159"/>
       <c r="L36" s="67"/>
@@ -12977,7 +12977,7 @@
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K37" s="159"/>
       <c r="L37" s="67"/>
@@ -13011,7 +13011,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="65"/>
       <c r="J38" s="65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K38" s="65"/>
       <c r="L38" s="67"/>
@@ -13045,7 +13045,7 @@
       <c r="H39" s="51"/>
       <c r="I39" s="65"/>
       <c r="J39" s="65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K39" s="65"/>
       <c r="L39" s="67"/>
@@ -13077,7 +13077,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="109" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G40" s="139"/>
       <c r="H40" s="139" t="s">
@@ -13090,7 +13090,7 @@
         <v>501</v>
       </c>
       <c r="K40" s="141" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L40" s="142"/>
       <c r="M40" s="143"/>
@@ -13117,20 +13117,20 @@
       <c r="D41" s="146"/>
       <c r="E41" s="147"/>
       <c r="F41" s="109" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G41" s="139"/>
       <c r="H41" s="139" t="s">
+        <v>517</v>
+      </c>
+      <c r="I41" s="139" t="s">
         <v>518</v>
       </c>
-      <c r="I41" s="139" t="s">
-        <v>519</v>
-      </c>
       <c r="J41" s="140" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K41" s="141" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L41" s="142"/>
       <c r="M41" s="143"/>
@@ -21515,7 +21515,7 @@
       <c r="H279" s="51"/>
       <c r="I279" s="51"/>
       <c r="J279" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K279" s="68"/>
       <c r="L279" s="67"/>
@@ -21549,7 +21549,7 @@
       <c r="H280" s="51"/>
       <c r="I280" s="51"/>
       <c r="J280" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K280" s="68"/>
       <c r="L280" s="67"/>
@@ -21583,7 +21583,7 @@
       <c r="H281" s="51"/>
       <c r="I281" s="51"/>
       <c r="J281" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K281" s="68"/>
       <c r="L281" s="67"/>
@@ -21617,7 +21617,7 @@
       <c r="H282" s="51"/>
       <c r="I282" s="51"/>
       <c r="J282" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K282" s="68"/>
       <c r="L282" s="67"/>
@@ -21657,7 +21657,7 @@
       <c r="H283" s="51"/>
       <c r="I283" s="51"/>
       <c r="J283" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K283" s="68"/>
       <c r="L283" s="67"/>
@@ -21693,7 +21693,7 @@
       <c r="H284" s="51"/>
       <c r="I284" s="51"/>
       <c r="J284" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K284" s="68"/>
       <c r="L284" s="67"/>
@@ -21729,7 +21729,7 @@
       <c r="H285" s="51"/>
       <c r="I285" s="51"/>
       <c r="J285" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K285" s="68"/>
       <c r="L285" s="67"/>
@@ -21765,7 +21765,7 @@
       <c r="H286" s="51"/>
       <c r="I286" s="51"/>
       <c r="J286" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K286" s="68"/>
       <c r="L286" s="67"/>
@@ -21803,7 +21803,7 @@
       <c r="H287" s="51"/>
       <c r="I287" s="51"/>
       <c r="J287" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K287" s="68"/>
       <c r="L287" s="67"/>
@@ -21837,7 +21837,7 @@
       <c r="H288" s="51"/>
       <c r="I288" s="51"/>
       <c r="J288" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K288" s="68"/>
       <c r="L288" s="67"/>
@@ -21871,7 +21871,7 @@
       <c r="H289" s="51"/>
       <c r="I289" s="51"/>
       <c r="J289" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K289" s="68"/>
       <c r="L289" s="67"/>
@@ -21905,7 +21905,7 @@
       <c r="H290" s="51"/>
       <c r="I290" s="51"/>
       <c r="J290" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K290" s="68"/>
       <c r="L290" s="67"/>
@@ -21939,7 +21939,7 @@
       <c r="H291" s="51"/>
       <c r="I291" s="51"/>
       <c r="J291" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K291" s="68"/>
       <c r="L291" s="67"/>
@@ -21973,7 +21973,7 @@
       <c r="H292" s="51"/>
       <c r="I292" s="51"/>
       <c r="J292" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K292" s="68"/>
       <c r="L292" s="67"/>
@@ -22007,7 +22007,7 @@
       <c r="H293" s="51"/>
       <c r="I293" s="51"/>
       <c r="J293" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K293" s="68"/>
       <c r="L293" s="67"/>
@@ -22041,7 +22041,7 @@
       <c r="H294" s="51"/>
       <c r="I294" s="51"/>
       <c r="J294" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K294" s="68"/>
       <c r="L294" s="67"/>
@@ -22075,7 +22075,7 @@
       <c r="H295" s="51"/>
       <c r="I295" s="51"/>
       <c r="J295" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K295" s="68"/>
       <c r="L295" s="67"/>
@@ -22167,7 +22167,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>9</v>
@@ -23410,16 +23410,16 @@
       </c>
       <c r="G42" s="153"/>
       <c r="H42" s="144" t="s">
+        <v>509</v>
+      </c>
+      <c r="I42" s="144" t="s">
         <v>510</v>
       </c>
-      <c r="I42" s="144" t="s">
+      <c r="J42" s="142" t="s">
         <v>511</v>
       </c>
-      <c r="J42" s="142" t="s">
+      <c r="K42" s="142" t="s">
         <v>512</v>
-      </c>
-      <c r="K42" s="142" t="s">
-        <v>513</v>
       </c>
       <c r="L42" s="144"/>
       <c r="M42" s="144"/>
@@ -23457,7 +23457,7 @@
         <v>500</v>
       </c>
       <c r="J43" s="142" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K43" s="142" t="s">
         <v>574</v>
@@ -23496,16 +23496,16 @@
       </c>
       <c r="G44" s="153"/>
       <c r="H44" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="I44" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="I44" s="144" t="s">
+      <c r="J44" s="142" t="s">
         <v>504</v>
       </c>
-      <c r="J44" s="142" t="s">
+      <c r="K44" s="142" t="s">
         <v>505</v>
-      </c>
-      <c r="K44" s="142" t="s">
-        <v>506</v>
       </c>
       <c r="L44" s="144"/>
       <c r="M44" s="144"/>
@@ -23588,7 +23588,7 @@
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
       <c r="J46" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K46" s="66"/>
       <c r="L46" s="68"/>
@@ -23623,7 +23623,7 @@
       <c r="H47" s="42"/>
       <c r="I47" s="51"/>
       <c r="J47" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K47" s="66"/>
       <c r="L47" s="68"/>
@@ -23658,7 +23658,7 @@
       <c r="H48" s="42"/>
       <c r="I48" s="51"/>
       <c r="J48" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K48" s="66"/>
       <c r="L48" s="68"/>
@@ -23695,7 +23695,7 @@
       <c r="H49" s="68"/>
       <c r="I49" s="68"/>
       <c r="J49" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K49" s="67"/>
       <c r="L49" s="68"/>
@@ -23730,7 +23730,7 @@
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
       <c r="J50" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K50" s="67"/>
       <c r="L50" s="68"/>
@@ -23765,7 +23765,7 @@
       <c r="H51" s="68"/>
       <c r="I51" s="68"/>
       <c r="J51" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K51" s="67"/>
       <c r="L51" s="68"/>
@@ -23802,7 +23802,7 @@
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K52" s="66"/>
       <c r="L52" s="68"/>
@@ -23837,7 +23837,7 @@
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K53" s="66"/>
       <c r="L53" s="68"/>
@@ -23874,7 +23874,7 @@
       <c r="H54" s="68"/>
       <c r="I54" s="68"/>
       <c r="J54" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K54" s="67"/>
       <c r="L54" s="68"/>
@@ -23909,7 +23909,7 @@
       <c r="H55" s="68"/>
       <c r="I55" s="68"/>
       <c r="J55" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K55" s="67"/>
       <c r="L55" s="68"/>
@@ -23944,7 +23944,7 @@
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
       <c r="J56" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K56" s="67"/>
       <c r="L56" s="68"/>
@@ -23979,7 +23979,7 @@
       <c r="H57" s="68"/>
       <c r="I57" s="68"/>
       <c r="J57" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K57" s="67"/>
       <c r="L57" s="68"/>
@@ -24014,7 +24014,7 @@
       <c r="H58" s="68"/>
       <c r="I58" s="68"/>
       <c r="J58" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K58" s="67"/>
       <c r="L58" s="68"/>
@@ -24049,7 +24049,7 @@
       <c r="H59" s="68"/>
       <c r="I59" s="68"/>
       <c r="J59" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K59" s="67"/>
       <c r="L59" s="68"/>
@@ -24086,7 +24086,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K60" s="66"/>
       <c r="L60" s="68"/>
@@ -24123,7 +24123,7 @@
       <c r="H61" s="68"/>
       <c r="I61" s="68"/>
       <c r="J61" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K61" s="67"/>
       <c r="L61" s="68"/>
@@ -24160,7 +24160,7 @@
       <c r="H62" s="68"/>
       <c r="I62" s="68"/>
       <c r="J62" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K62" s="67"/>
       <c r="L62" s="68"/>
@@ -24203,10 +24203,10 @@
         <v>500</v>
       </c>
       <c r="J63" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K63" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L63" s="62"/>
       <c r="M63" s="62"/>
@@ -24240,7 +24240,7 @@
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K64" s="66"/>
       <c r="L64" s="68"/>
@@ -24275,7 +24275,7 @@
       <c r="H65" s="68"/>
       <c r="I65" s="68"/>
       <c r="J65" s="67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K65" s="67"/>
       <c r="L65" s="68"/>
@@ -24310,7 +24310,7 @@
       <c r="H66" s="68"/>
       <c r="I66" s="68"/>
       <c r="J66" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K66" s="67"/>
       <c r="L66" s="68"/>
@@ -24345,7 +24345,7 @@
       <c r="H67" s="68"/>
       <c r="I67" s="68"/>
       <c r="J67" s="67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K67" s="67"/>
       <c r="L67" s="68"/>
@@ -24382,7 +24382,7 @@
       <c r="H68" s="68"/>
       <c r="I68" s="68"/>
       <c r="J68" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K68" s="67"/>
       <c r="L68" s="68"/>
@@ -24417,7 +24417,7 @@
       <c r="H69" s="68"/>
       <c r="I69" s="68"/>
       <c r="J69" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K69" s="67"/>
       <c r="L69" s="68"/>
@@ -24452,7 +24452,7 @@
       <c r="H70" s="68"/>
       <c r="I70" s="68"/>
       <c r="J70" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K70" s="67"/>
       <c r="L70" s="68"/>
@@ -24487,7 +24487,7 @@
       <c r="H71" s="68"/>
       <c r="I71" s="68"/>
       <c r="J71" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K71" s="67"/>
       <c r="L71" s="68"/>
@@ -24522,7 +24522,7 @@
       <c r="H72" s="68"/>
       <c r="I72" s="68"/>
       <c r="J72" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K72" s="67"/>
       <c r="L72" s="68"/>
@@ -24557,7 +24557,7 @@
       <c r="H73" s="68"/>
       <c r="I73" s="68"/>
       <c r="J73" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K73" s="67"/>
       <c r="L73" s="68"/>
@@ -24592,7 +24592,7 @@
       <c r="H74" s="68"/>
       <c r="I74" s="68"/>
       <c r="J74" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K74" s="67"/>
       <c r="L74" s="68"/>
@@ -24627,7 +24627,7 @@
       <c r="H75" s="68"/>
       <c r="I75" s="68"/>
       <c r="J75" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K75" s="67"/>
       <c r="L75" s="68"/>
@@ -24662,16 +24662,16 @@
       </c>
       <c r="G76" s="60"/>
       <c r="H76" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="I76" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="I76" s="60" t="s">
+      <c r="J76" s="111" t="s">
         <v>529</v>
       </c>
-      <c r="J76" s="111" t="s">
+      <c r="K76" s="111" t="s">
         <v>530</v>
-      </c>
-      <c r="K76" s="111" t="s">
-        <v>531</v>
       </c>
       <c r="L76" s="63"/>
       <c r="M76" s="63"/>
@@ -24701,16 +24701,16 @@
       <c r="F77" s="166"/>
       <c r="G77" s="60"/>
       <c r="H77" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="I77" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="I77" s="60" t="s">
-        <v>529</v>
-      </c>
       <c r="J77" s="111" t="s">
+        <v>531</v>
+      </c>
+      <c r="K77" s="111" t="s">
         <v>532</v>
-      </c>
-      <c r="K77" s="111" t="s">
-        <v>533</v>
       </c>
       <c r="L77" s="63"/>
       <c r="M77" s="63"/>
@@ -24740,16 +24740,16 @@
       <c r="F78" s="166"/>
       <c r="G78" s="60"/>
       <c r="H78" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="I78" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="I78" s="60" t="s">
-        <v>529</v>
-      </c>
       <c r="J78" s="111" t="s">
+        <v>533</v>
+      </c>
+      <c r="K78" s="111" t="s">
         <v>534</v>
-      </c>
-      <c r="K78" s="111" t="s">
-        <v>535</v>
       </c>
       <c r="L78" s="63"/>
       <c r="M78" s="63"/>
@@ -24779,16 +24779,16 @@
       <c r="F79" s="167"/>
       <c r="G79" s="60"/>
       <c r="H79" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="I79" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="I79" s="60" t="s">
+      <c r="J79" s="111" t="s">
         <v>529</v>
       </c>
-      <c r="J79" s="111" t="s">
-        <v>530</v>
-      </c>
       <c r="K79" s="111" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L79" s="63"/>
       <c r="M79" s="63"/>
@@ -24822,16 +24822,16 @@
       </c>
       <c r="G80" s="61"/>
       <c r="H80" s="62" t="s">
+        <v>539</v>
+      </c>
+      <c r="I80" s="62" t="s">
         <v>540</v>
       </c>
-      <c r="I80" s="62" t="s">
+      <c r="J80" s="111" t="s">
         <v>541</v>
       </c>
-      <c r="J80" s="111" t="s">
-        <v>542</v>
-      </c>
       <c r="K80" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L80" s="62"/>
       <c r="M80" s="62"/>
@@ -24865,7 +24865,7 @@
       <c r="H81" s="68"/>
       <c r="I81" s="68"/>
       <c r="J81" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K81" s="67"/>
       <c r="L81" s="68"/>
@@ -24900,7 +24900,7 @@
       <c r="H82" s="68"/>
       <c r="I82" s="68"/>
       <c r="J82" s="66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K82" s="67"/>
       <c r="L82" s="68"/>
@@ -24935,7 +24935,7 @@
       <c r="H83" s="68"/>
       <c r="I83" s="68"/>
       <c r="J83" s="66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K83" s="67"/>
       <c r="L83" s="68"/>
@@ -25010,7 +25010,7 @@
       <c r="H85" s="51"/>
       <c r="I85" s="51"/>
       <c r="J85" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K85" s="66"/>
       <c r="L85" s="68"/>
@@ -25045,7 +25045,7 @@
       <c r="H86" s="51"/>
       <c r="I86" s="51"/>
       <c r="J86" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K86" s="66"/>
       <c r="L86" s="68"/>
@@ -25082,7 +25082,7 @@
       <c r="H87" s="68"/>
       <c r="I87" s="68"/>
       <c r="J87" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K87" s="67"/>
       <c r="L87" s="68"/>
@@ -25119,7 +25119,7 @@
       <c r="H88" s="68"/>
       <c r="I88" s="68"/>
       <c r="J88" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K88" s="67"/>
       <c r="L88" s="68"/>
@@ -25154,7 +25154,7 @@
       <c r="H89" s="68"/>
       <c r="I89" s="68"/>
       <c r="J89" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K89" s="67"/>
       <c r="L89" s="68"/>
@@ -25191,7 +25191,7 @@
       <c r="H90" s="68"/>
       <c r="I90" s="68"/>
       <c r="J90" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K90" s="67"/>
       <c r="L90" s="68"/>
@@ -25228,7 +25228,7 @@
       <c r="H91" s="68"/>
       <c r="I91" s="68"/>
       <c r="J91" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K91" s="67"/>
       <c r="L91" s="68"/>
@@ -25273,10 +25273,10 @@
         <v>500</v>
       </c>
       <c r="J92" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K92" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L92" s="62"/>
       <c r="M92" s="62"/>
@@ -25316,10 +25316,10 @@
         <v>500</v>
       </c>
       <c r="J93" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K93" s="61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L93" s="62"/>
       <c r="M93" s="62"/>
@@ -25359,10 +25359,10 @@
         <v>500</v>
       </c>
       <c r="J94" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K94" s="61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L94" s="62"/>
       <c r="M94" s="62"/>
@@ -25402,7 +25402,7 @@
       <c r="H95" s="51"/>
       <c r="I95" s="51"/>
       <c r="J95" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K95" s="68"/>
       <c r="L95" s="68"/>
@@ -25437,7 +25437,7 @@
       <c r="H96" s="68"/>
       <c r="I96" s="68"/>
       <c r="J96" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K96" s="67"/>
       <c r="L96" s="68"/>
@@ -25474,7 +25474,7 @@
       <c r="H97" s="68"/>
       <c r="I97" s="68"/>
       <c r="J97" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K97" s="67"/>
       <c r="L97" s="68"/>
@@ -25511,7 +25511,7 @@
       <c r="H98" s="68"/>
       <c r="I98" s="68"/>
       <c r="J98" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K98" s="67"/>
       <c r="L98" s="68"/>
@@ -25546,7 +25546,7 @@
       <c r="H99" s="68"/>
       <c r="I99" s="68"/>
       <c r="J99" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K99" s="67"/>
       <c r="L99" s="68"/>
@@ -25583,7 +25583,7 @@
       <c r="H100" s="68"/>
       <c r="I100" s="68"/>
       <c r="J100" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K100" s="67"/>
       <c r="L100" s="68"/>
@@ -25624,7 +25624,7 @@
       <c r="H101" s="68"/>
       <c r="I101" s="68"/>
       <c r="J101" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K101" s="67"/>
       <c r="L101" s="68"/>
@@ -25659,7 +25659,7 @@
       <c r="H102" s="68"/>
       <c r="I102" s="68"/>
       <c r="J102" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K102" s="67"/>
       <c r="L102" s="68"/>
@@ -25694,7 +25694,7 @@
       <c r="H103" s="68"/>
       <c r="I103" s="68"/>
       <c r="J103" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K103" s="67"/>
       <c r="L103" s="68"/>
@@ -25729,7 +25729,7 @@
       <c r="H104" s="68"/>
       <c r="I104" s="68"/>
       <c r="J104" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K104" s="67"/>
       <c r="L104" s="68"/>
@@ -25764,7 +25764,7 @@
       <c r="H105" s="68"/>
       <c r="I105" s="68"/>
       <c r="J105" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K105" s="67"/>
       <c r="L105" s="68"/>
@@ -25801,7 +25801,7 @@
       <c r="H106" s="68"/>
       <c r="I106" s="68"/>
       <c r="J106" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K106" s="67"/>
       <c r="L106" s="68"/>
@@ -25836,7 +25836,7 @@
       <c r="H107" s="68"/>
       <c r="I107" s="68"/>
       <c r="J107" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K107" s="67"/>
       <c r="L107" s="68"/>
@@ -25871,7 +25871,7 @@
       <c r="H108" s="68"/>
       <c r="I108" s="68"/>
       <c r="J108" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K108" s="67"/>
       <c r="L108" s="68"/>
@@ -25906,7 +25906,7 @@
       <c r="H109" s="68"/>
       <c r="I109" s="68"/>
       <c r="J109" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K109" s="67"/>
       <c r="L109" s="68"/>
@@ -25941,7 +25941,7 @@
       <c r="H110" s="68"/>
       <c r="I110" s="68"/>
       <c r="J110" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K110" s="67"/>
       <c r="L110" s="68"/>
@@ -25978,7 +25978,7 @@
       <c r="H111" s="68"/>
       <c r="I111" s="68"/>
       <c r="J111" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K111" s="67"/>
       <c r="L111" s="68"/>
@@ -26021,7 +26021,7 @@
       <c r="H112" s="68"/>
       <c r="I112" s="68"/>
       <c r="J112" s="67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K112" s="67"/>
       <c r="L112" s="68"/>
@@ -26062,7 +26062,7 @@
       <c r="H113" s="68"/>
       <c r="I113" s="68"/>
       <c r="J113" s="67" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K113" s="67"/>
       <c r="L113" s="68"/>
@@ -26097,7 +26097,7 @@
       <c r="H114" s="68"/>
       <c r="I114" s="68"/>
       <c r="J114" s="67" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K114" s="67"/>
       <c r="L114" s="68"/>
@@ -26138,7 +26138,7 @@
       <c r="H115" s="68"/>
       <c r="I115" s="68"/>
       <c r="J115" s="67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K115" s="67"/>
       <c r="L115" s="68"/>
@@ -26179,7 +26179,7 @@
       <c r="H116" s="68"/>
       <c r="I116" s="68"/>
       <c r="J116" s="67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K116" s="67"/>
       <c r="L116" s="68"/>
@@ -26214,7 +26214,7 @@
       <c r="H117" s="68"/>
       <c r="I117" s="68"/>
       <c r="J117" s="67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K117" s="67"/>
       <c r="L117" s="68"/>
@@ -32321,7 +32321,7 @@
       <c r="H286" s="68"/>
       <c r="I286" s="68"/>
       <c r="J286" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K286" s="67"/>
       <c r="L286" s="68"/>
@@ -32356,7 +32356,7 @@
       <c r="H287" s="68"/>
       <c r="I287" s="68"/>
       <c r="J287" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K287" s="67"/>
       <c r="L287" s="68"/>
@@ -32391,7 +32391,7 @@
       <c r="H288" s="68"/>
       <c r="I288" s="68"/>
       <c r="J288" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K288" s="67"/>
       <c r="L288" s="68"/>
@@ -32426,7 +32426,7 @@
       <c r="H289" s="68"/>
       <c r="I289" s="68"/>
       <c r="J289" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K289" s="67"/>
       <c r="L289" s="68"/>
@@ -32467,7 +32467,7 @@
       <c r="H290" s="68"/>
       <c r="I290" s="68"/>
       <c r="J290" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K290" s="67"/>
       <c r="L290" s="68"/>
@@ -32504,7 +32504,7 @@
       <c r="H291" s="68"/>
       <c r="I291" s="68"/>
       <c r="J291" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K291" s="67"/>
       <c r="L291" s="68"/>
@@ -32541,7 +32541,7 @@
       <c r="H292" s="68"/>
       <c r="I292" s="68"/>
       <c r="J292" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K292" s="67"/>
       <c r="L292" s="68"/>
@@ -32578,7 +32578,7 @@
       <c r="H293" s="68"/>
       <c r="I293" s="68"/>
       <c r="J293" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K293" s="67"/>
       <c r="L293" s="68"/>
@@ -32617,7 +32617,7 @@
       <c r="H294" s="68"/>
       <c r="I294" s="68"/>
       <c r="J294" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K294" s="67"/>
       <c r="L294" s="68"/>
@@ -32652,7 +32652,7 @@
       <c r="H295" s="68"/>
       <c r="I295" s="68"/>
       <c r="J295" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K295" s="67"/>
       <c r="L295" s="68"/>
@@ -32687,7 +32687,7 @@
       <c r="H296" s="68"/>
       <c r="I296" s="68"/>
       <c r="J296" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K296" s="67"/>
       <c r="L296" s="68"/>
@@ -32722,7 +32722,7 @@
       <c r="H297" s="68"/>
       <c r="I297" s="68"/>
       <c r="J297" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K297" s="67"/>
       <c r="L297" s="68"/>
@@ -32757,7 +32757,7 @@
       <c r="H298" s="68"/>
       <c r="I298" s="68"/>
       <c r="J298" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K298" s="67"/>
       <c r="L298" s="68"/>
@@ -32792,7 +32792,7 @@
       <c r="H299" s="68"/>
       <c r="I299" s="68"/>
       <c r="J299" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K299" s="67"/>
       <c r="L299" s="68"/>
@@ -32827,7 +32827,7 @@
       <c r="H300" s="68"/>
       <c r="I300" s="68"/>
       <c r="J300" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K300" s="67"/>
       <c r="L300" s="68"/>
@@ -32862,7 +32862,7 @@
       <c r="H301" s="68"/>
       <c r="I301" s="68"/>
       <c r="J301" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K301" s="67"/>
       <c r="L301" s="68"/>
@@ -32897,7 +32897,7 @@
       <c r="H302" s="170"/>
       <c r="I302" s="170"/>
       <c r="J302" s="168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K302" s="169"/>
       <c r="L302" s="170"/>
@@ -32938,16 +32938,16 @@
       </c>
       <c r="G303" s="61"/>
       <c r="H303" s="62" t="s">
+        <v>551</v>
+      </c>
+      <c r="I303" s="62" t="s">
         <v>552</v>
       </c>
-      <c r="I303" s="62" t="s">
+      <c r="J303" s="62" t="s">
         <v>553</v>
       </c>
-      <c r="J303" s="62" t="s">
-        <v>554</v>
-      </c>
       <c r="K303" s="62" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="L303" s="62"/>
       <c r="M303" s="62"/>
@@ -32986,13 +32986,13 @@
         <v>499</v>
       </c>
       <c r="I304" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J304" s="62" t="s">
         <v>555</v>
       </c>
-      <c r="J304" s="62" t="s">
-        <v>556</v>
-      </c>
       <c r="K304" s="62" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="L304" s="62"/>
       <c r="M304" s="62"/>
@@ -33025,13 +33025,13 @@
         <v>499</v>
       </c>
       <c r="I305" s="62" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J305" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="K305" s="62" t="s">
         <v>557</v>
-      </c>
-      <c r="K305" s="62" t="s">
-        <v>558</v>
       </c>
       <c r="L305" s="62"/>
       <c r="M305" s="62"/>
@@ -33064,13 +33064,13 @@
         <v>499</v>
       </c>
       <c r="I306" s="62" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J306" s="62" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K306" s="62" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L306" s="62"/>
       <c r="M306" s="62"/>
@@ -33106,16 +33106,16 @@
       </c>
       <c r="G307" s="61"/>
       <c r="H307" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="I307" s="62" t="s">
         <v>560</v>
       </c>
-      <c r="I307" s="62" t="s">
-        <v>561</v>
-      </c>
       <c r="J307" s="62" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K307" s="62" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="L307" s="62"/>
       <c r="M307" s="62"/>
@@ -33147,16 +33147,16 @@
       </c>
       <c r="G308" s="61"/>
       <c r="H308" s="62" t="s">
+        <v>561</v>
+      </c>
+      <c r="I308" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="J308" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="K308" s="62" t="s">
         <v>563</v>
-      </c>
-      <c r="I308" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="J308" s="62" t="s">
-        <v>557</v>
-      </c>
-      <c r="K308" s="62" t="s">
-        <v>565</v>
       </c>
       <c r="L308" s="62"/>
       <c r="M308" s="62"/>
@@ -33190,7 +33190,7 @@
       <c r="H309" s="68"/>
       <c r="I309" s="68"/>
       <c r="J309" s="68" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K309" s="68"/>
       <c r="L309" s="68"/>
@@ -33229,7 +33229,7 @@
       <c r="H310" s="68"/>
       <c r="I310" s="68"/>
       <c r="J310" s="68" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K310" s="68"/>
       <c r="L310" s="68"/>
@@ -33266,7 +33266,7 @@
       <c r="H311" s="68"/>
       <c r="I311" s="68"/>
       <c r="J311" s="68" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K311" s="68"/>
       <c r="L311" s="68"/>
@@ -33303,16 +33303,16 @@
       </c>
       <c r="G312" s="61"/>
       <c r="H312" s="62" t="s">
+        <v>561</v>
+      </c>
+      <c r="I312" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="J312" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="K312" s="62" t="s">
         <v>563</v>
-      </c>
-      <c r="I312" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="J312" s="62" t="s">
-        <v>557</v>
-      </c>
-      <c r="K312" s="62" t="s">
-        <v>565</v>
       </c>
       <c r="L312" s="62"/>
       <c r="M312" s="62"/>
@@ -33342,16 +33342,16 @@
       <c r="F313" s="134"/>
       <c r="G313" s="61"/>
       <c r="H313" s="62" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I313" s="62" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J313" s="62" t="s">
+        <v>504</v>
+      </c>
+      <c r="K313" s="62" t="s">
         <v>505</v>
-      </c>
-      <c r="K313" s="62" t="s">
-        <v>506</v>
       </c>
       <c r="L313" s="62"/>
       <c r="M313" s="62"/>
@@ -33383,16 +33383,16 @@
       </c>
       <c r="G314" s="61"/>
       <c r="H314" s="62" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I314" s="62" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J314" s="62" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K314" s="62" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L314" s="62"/>
       <c r="M314" s="62"/>
@@ -33426,7 +33426,7 @@
       <c r="H315" s="68"/>
       <c r="I315" s="68"/>
       <c r="J315" s="68" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K315" s="68"/>
       <c r="L315" s="68"/>
@@ -33461,7 +33461,7 @@
       <c r="H316" s="68"/>
       <c r="I316" s="68"/>
       <c r="J316" s="68" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K316" s="68"/>
       <c r="L316" s="68"/>
@@ -33496,7 +33496,7 @@
       <c r="H317" s="68"/>
       <c r="I317" s="68"/>
       <c r="J317" s="68" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K317" s="68"/>
       <c r="L317" s="68"/>
@@ -33531,7 +33531,7 @@
       <c r="H318" s="68"/>
       <c r="I318" s="68"/>
       <c r="J318" s="68" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K318" s="68"/>
       <c r="L318" s="68"/>
@@ -33566,7 +33566,7 @@
       <c r="H319" s="68"/>
       <c r="I319" s="68"/>
       <c r="J319" s="68" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K319" s="68"/>
       <c r="L319" s="68"/>
@@ -33601,7 +33601,7 @@
       <c r="H320" s="68"/>
       <c r="I320" s="68"/>
       <c r="J320" s="68" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K320" s="68"/>
       <c r="L320" s="68"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A46C369-63CA-430A-96E4-134AB0B94A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED31D1-CC64-4C0B-9067-F63B0D54BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7700,9 +7700,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testRegisterNoParameterClientName()</t>
-  </si>
-  <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testRegisterClient()</t>
   </si>
   <si>
@@ -7755,6 +7752,10 @@
   <si>
     <t>有効なレコードが存在する場合、エラーとなること。
 ※本機能では重複した場合にエラーとなるため観点カタログの記載とは条件が逆転している。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testRegisterNoParameter()</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8799,74 +8800,14 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -8976,17 +8917,77 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9922,12 +9923,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="172" t="str">
+      <c r="I25" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10487,57 +10488,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="204" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="184" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="210" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="219" t="s">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="199" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="201" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="203"/>
-      <c r="AC1" s="228" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="195" t="str">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="175" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="196"/>
-      <c r="AI1" s="197"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10545,53 +10546,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="204" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="201" t="s">
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="187" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="195" t="str">
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="175" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="197"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10599,45 +10600,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="228"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="230"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="196"/>
-      <c r="AI3" s="197"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10674,85 +10675,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="198" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="180"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="198" t="s">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="198" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="199"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="179"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="193"/>
-      <c r="AC8" s="193"/>
-      <c r="AD8" s="193"/>
-      <c r="AE8" s="194"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="230"/>
+      <c r="AB8" s="230"/>
+      <c r="AC8" s="230"/>
+      <c r="AD8" s="230"/>
+      <c r="AE8" s="231"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10760,934 +10761,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="181"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="222"/>
+      <c r="AF9" s="217"/>
+      <c r="AG9" s="218"/>
+      <c r="AH9" s="218"/>
+      <c r="AI9" s="219"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="181"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="221"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="222"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="218"/>
+      <c r="AH10" s="218"/>
+      <c r="AI10" s="219"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="181"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="221"/>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="221"/>
+      <c r="AC11" s="221"/>
+      <c r="AD11" s="221"/>
+      <c r="AE11" s="222"/>
+      <c r="AF11" s="217"/>
+      <c r="AG11" s="218"/>
+      <c r="AH11" s="218"/>
+      <c r="AI11" s="219"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="180"/>
-      <c r="AI12" s="181"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="222"/>
+      <c r="AF12" s="217"/>
+      <c r="AG12" s="218"/>
+      <c r="AH12" s="218"/>
+      <c r="AI12" s="219"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="181"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="219"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="221"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="221"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="221"/>
+      <c r="Y13" s="221"/>
+      <c r="Z13" s="221"/>
+      <c r="AA13" s="221"/>
+      <c r="AB13" s="221"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="221"/>
+      <c r="AE13" s="222"/>
+      <c r="AF13" s="217"/>
+      <c r="AG13" s="218"/>
+      <c r="AH13" s="218"/>
+      <c r="AI13" s="219"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="181"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="221"/>
+      <c r="AC14" s="221"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="222"/>
+      <c r="AF14" s="217"/>
+      <c r="AG14" s="218"/>
+      <c r="AH14" s="218"/>
+      <c r="AI14" s="219"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="180"/>
-      <c r="AH15" s="180"/>
-      <c r="AI15" s="181"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="221"/>
+      <c r="S15" s="221"/>
+      <c r="T15" s="221"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="221"/>
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="221"/>
+      <c r="Z15" s="221"/>
+      <c r="AA15" s="221"/>
+      <c r="AB15" s="221"/>
+      <c r="AC15" s="221"/>
+      <c r="AD15" s="221"/>
+      <c r="AE15" s="222"/>
+      <c r="AF15" s="217"/>
+      <c r="AG15" s="218"/>
+      <c r="AH15" s="218"/>
+      <c r="AI15" s="219"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="181"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="219"/>
+      <c r="Q16" s="220"/>
+      <c r="R16" s="221"/>
+      <c r="S16" s="221"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="221"/>
+      <c r="AB16" s="221"/>
+      <c r="AC16" s="221"/>
+      <c r="AD16" s="221"/>
+      <c r="AE16" s="222"/>
+      <c r="AF16" s="217"/>
+      <c r="AG16" s="218"/>
+      <c r="AH16" s="218"/>
+      <c r="AI16" s="219"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="180"/>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="181"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="220"/>
+      <c r="R17" s="221"/>
+      <c r="S17" s="221"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="221"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="222"/>
+      <c r="AF17" s="217"/>
+      <c r="AG17" s="218"/>
+      <c r="AH17" s="218"/>
+      <c r="AI17" s="219"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="181"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="222"/>
+      <c r="AF18" s="217"/>
+      <c r="AG18" s="218"/>
+      <c r="AH18" s="218"/>
+      <c r="AI18" s="219"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="181"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="219"/>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="222"/>
+      <c r="AF19" s="217"/>
+      <c r="AG19" s="218"/>
+      <c r="AH19" s="218"/>
+      <c r="AI19" s="219"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="181"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="221"/>
+      <c r="S20" s="221"/>
+      <c r="T20" s="221"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="221"/>
+      <c r="W20" s="221"/>
+      <c r="X20" s="221"/>
+      <c r="Y20" s="221"/>
+      <c r="Z20" s="221"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="221"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="221"/>
+      <c r="AE20" s="222"/>
+      <c r="AF20" s="217"/>
+      <c r="AG20" s="218"/>
+      <c r="AH20" s="218"/>
+      <c r="AI20" s="219"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="181"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="220"/>
+      <c r="R21" s="221"/>
+      <c r="S21" s="221"/>
+      <c r="T21" s="221"/>
+      <c r="U21" s="221"/>
+      <c r="V21" s="221"/>
+      <c r="W21" s="221"/>
+      <c r="X21" s="221"/>
+      <c r="Y21" s="221"/>
+      <c r="Z21" s="221"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="221"/>
+      <c r="AC21" s="221"/>
+      <c r="AD21" s="221"/>
+      <c r="AE21" s="222"/>
+      <c r="AF21" s="217"/>
+      <c r="AG21" s="218"/>
+      <c r="AH21" s="218"/>
+      <c r="AI21" s="219"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="181"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="221"/>
+      <c r="AC22" s="221"/>
+      <c r="AD22" s="221"/>
+      <c r="AE22" s="222"/>
+      <c r="AF22" s="217"/>
+      <c r="AG22" s="218"/>
+      <c r="AH22" s="218"/>
+      <c r="AI22" s="219"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="181"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="219"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="221"/>
+      <c r="S23" s="221"/>
+      <c r="T23" s="221"/>
+      <c r="U23" s="221"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="221"/>
+      <c r="AD23" s="221"/>
+      <c r="AE23" s="222"/>
+      <c r="AF23" s="217"/>
+      <c r="AG23" s="218"/>
+      <c r="AH23" s="218"/>
+      <c r="AI23" s="219"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="181"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="217"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="219"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="221"/>
+      <c r="AE24" s="222"/>
+      <c r="AF24" s="217"/>
+      <c r="AG24" s="218"/>
+      <c r="AH24" s="218"/>
+      <c r="AI24" s="219"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="181"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="222"/>
+      <c r="AF25" s="217"/>
+      <c r="AG25" s="218"/>
+      <c r="AH25" s="218"/>
+      <c r="AI25" s="219"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="181"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="218"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="222"/>
+      <c r="AF26" s="217"/>
+      <c r="AG26" s="218"/>
+      <c r="AH26" s="218"/>
+      <c r="AI26" s="219"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="181"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="217"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="218"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="222"/>
+      <c r="AF27" s="217"/>
+      <c r="AG27" s="218"/>
+      <c r="AH27" s="218"/>
+      <c r="AI27" s="219"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="181"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="218"/>
+      <c r="P28" s="219"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="221"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="221"/>
+      <c r="W28" s="221"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="221"/>
+      <c r="Z28" s="221"/>
+      <c r="AA28" s="221"/>
+      <c r="AB28" s="221"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="221"/>
+      <c r="AE28" s="222"/>
+      <c r="AF28" s="217"/>
+      <c r="AG28" s="218"/>
+      <c r="AH28" s="218"/>
+      <c r="AI28" s="219"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="181"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="219"/>
+      <c r="Q29" s="220"/>
+      <c r="R29" s="221"/>
+      <c r="S29" s="221"/>
+      <c r="T29" s="221"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="221"/>
+      <c r="W29" s="221"/>
+      <c r="X29" s="221"/>
+      <c r="Y29" s="221"/>
+      <c r="Z29" s="221"/>
+      <c r="AA29" s="221"/>
+      <c r="AB29" s="221"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="221"/>
+      <c r="AE29" s="222"/>
+      <c r="AF29" s="217"/>
+      <c r="AG29" s="218"/>
+      <c r="AH29" s="218"/>
+      <c r="AI29" s="219"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="181"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="218"/>
+      <c r="P30" s="219"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="221"/>
+      <c r="S30" s="221"/>
+      <c r="T30" s="221"/>
+      <c r="U30" s="221"/>
+      <c r="V30" s="221"/>
+      <c r="W30" s="221"/>
+      <c r="X30" s="221"/>
+      <c r="Y30" s="221"/>
+      <c r="Z30" s="221"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="221"/>
+      <c r="AC30" s="221"/>
+      <c r="AD30" s="221"/>
+      <c r="AE30" s="222"/>
+      <c r="AF30" s="217"/>
+      <c r="AG30" s="218"/>
+      <c r="AH30" s="218"/>
+      <c r="AI30" s="219"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="180"/>
-      <c r="AI31" s="181"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="218"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="221"/>
+      <c r="U31" s="221"/>
+      <c r="V31" s="221"/>
+      <c r="W31" s="221"/>
+      <c r="X31" s="221"/>
+      <c r="Y31" s="221"/>
+      <c r="Z31" s="221"/>
+      <c r="AA31" s="221"/>
+      <c r="AB31" s="221"/>
+      <c r="AC31" s="221"/>
+      <c r="AD31" s="221"/>
+      <c r="AE31" s="222"/>
+      <c r="AF31" s="217"/>
+      <c r="AG31" s="218"/>
+      <c r="AH31" s="218"/>
+      <c r="AI31" s="219"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="181"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="218"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
+      <c r="W32" s="221"/>
+      <c r="X32" s="221"/>
+      <c r="Y32" s="221"/>
+      <c r="Z32" s="221"/>
+      <c r="AA32" s="221"/>
+      <c r="AB32" s="221"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="221"/>
+      <c r="AE32" s="222"/>
+      <c r="AF32" s="217"/>
+      <c r="AG32" s="218"/>
+      <c r="AH32" s="218"/>
+      <c r="AI32" s="219"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="180"/>
-      <c r="AI33" s="181"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="218"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="218"/>
+      <c r="P33" s="219"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="221"/>
+      <c r="S33" s="221"/>
+      <c r="T33" s="221"/>
+      <c r="U33" s="221"/>
+      <c r="V33" s="221"/>
+      <c r="W33" s="221"/>
+      <c r="X33" s="221"/>
+      <c r="Y33" s="221"/>
+      <c r="Z33" s="221"/>
+      <c r="AA33" s="221"/>
+      <c r="AB33" s="221"/>
+      <c r="AC33" s="221"/>
+      <c r="AD33" s="221"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="217"/>
+      <c r="AG33" s="218"/>
+      <c r="AH33" s="218"/>
+      <c r="AI33" s="219"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11711,161 +11867,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13066,7 +13067,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G40" s="51"/>
       <c r="H40" s="51" t="s">
@@ -13102,7 +13103,7 @@
       <c r="D41" s="136"/>
       <c r="E41" s="137"/>
       <c r="F41" s="108" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G41" s="138"/>
       <c r="H41" s="138" t="s">
@@ -13145,12 +13146,12 @@
 )</f>
         <v>12-3-1</v>
       </c>
-      <c r="B42" s="233"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="49"/>
       <c r="D42" s="136"/>
       <c r="E42" s="137"/>
       <c r="F42" s="98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G42" s="51"/>
       <c r="H42" s="51" t="s">
@@ -13181,12 +13182,12 @@
 )</f>
         <v>12-4-1</v>
       </c>
-      <c r="B43" s="234"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="68"/>
       <c r="D43" s="145"/>
       <c r="E43" s="146"/>
       <c r="F43" s="108" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G43" s="138"/>
       <c r="H43" s="138" t="s">
@@ -15719,7 +15720,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B114" s="231" t="s">
+      <c r="B114" s="233" t="s">
         <v>193</v>
       </c>
       <c r="C114" s="56"/>
@@ -15755,7 +15756,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B115" s="231"/>
+      <c r="B115" s="233"/>
       <c r="C115" s="56"/>
       <c r="D115" s="43"/>
       <c r="E115" s="86"/>
@@ -16427,7 +16428,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B134" s="231" t="s">
+      <c r="B134" s="233" t="s">
         <v>221</v>
       </c>
       <c r="C134" s="56"/>
@@ -16463,7 +16464,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B135" s="231"/>
+      <c r="B135" s="233"/>
       <c r="C135" s="56"/>
       <c r="D135" s="43"/>
       <c r="E135" s="43"/>
@@ -23499,7 +23500,7 @@
         <v>510</v>
       </c>
       <c r="L42" s="143" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="M42" s="143"/>
       <c r="N42" s="142" t="s">
@@ -23548,7 +23549,7 @@
         <v>570</v>
       </c>
       <c r="L43" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M43" s="143"/>
       <c r="N43" s="142" t="s">
@@ -23601,7 +23602,7 @@
         <v>503</v>
       </c>
       <c r="L44" s="143" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M44" s="143"/>
       <c r="N44" s="142" t="s">
@@ -23650,7 +23651,7 @@
         <v>570</v>
       </c>
       <c r="L45" s="143" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M45" s="143"/>
       <c r="N45" s="142" t="s">
@@ -24318,7 +24319,7 @@
         <v>511</v>
       </c>
       <c r="L63" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M63" s="62"/>
       <c r="N63" s="142" t="s">
@@ -24791,7 +24792,7 @@
         <v>526</v>
       </c>
       <c r="L76" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M76" s="63"/>
       <c r="N76" s="142" t="s">
@@ -24838,7 +24839,7 @@
         <v>528</v>
       </c>
       <c r="L77" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M77" s="63"/>
       <c r="N77" s="142" t="s">
@@ -24885,7 +24886,7 @@
         <v>530</v>
       </c>
       <c r="L78" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M78" s="63"/>
       <c r="N78" s="142" t="s">
@@ -24975,7 +24976,7 @@
         <v>511</v>
       </c>
       <c r="L80" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M80" s="62"/>
       <c r="N80" s="142" t="s">
@@ -25428,7 +25429,7 @@
         <v>511</v>
       </c>
       <c r="L92" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M92" s="62"/>
       <c r="N92" s="142" t="s">
@@ -25479,7 +25480,7 @@
         <v>538</v>
       </c>
       <c r="L93" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M93" s="62"/>
       <c r="N93" s="142" t="s">
@@ -25530,7 +25531,7 @@
         <v>539</v>
       </c>
       <c r="L94" s="143" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M94" s="62"/>
       <c r="N94" s="142" t="s">
@@ -26454,7 +26455,7 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B119" s="232" t="s">
+      <c r="B119" s="234" t="s">
         <v>438</v>
       </c>
       <c r="C119" s="103"/>
@@ -26491,7 +26492,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B120" s="232"/>
+      <c r="B120" s="234"/>
       <c r="C120" s="103"/>
       <c r="D120" s="97"/>
       <c r="E120" s="114"/>
@@ -27182,7 +27183,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B139" s="232" t="s">
+      <c r="B139" s="234" t="s">
         <v>221</v>
       </c>
       <c r="C139" s="103"/>
@@ -27219,7 +27220,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B140" s="232"/>
+      <c r="B140" s="234"/>
       <c r="C140" s="103"/>
       <c r="D140" s="97"/>
       <c r="E140" s="103"/>
@@ -33123,7 +33124,7 @@
         <v>568</v>
       </c>
       <c r="L303" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M303" s="62"/>
       <c r="N303" s="142" t="s">
@@ -33176,7 +33177,7 @@
         <v>568</v>
       </c>
       <c r="L304" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M304" s="62"/>
       <c r="N304" s="142" t="s">
@@ -33223,7 +33224,7 @@
         <v>553</v>
       </c>
       <c r="L305" s="62" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M305" s="62"/>
       <c r="N305" s="142" t="s">
@@ -33270,7 +33271,7 @@
         <v>554</v>
       </c>
       <c r="L306" s="62" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M306" s="62"/>
       <c r="N306" s="142" t="s">
@@ -33323,7 +33324,7 @@
         <v>569</v>
       </c>
       <c r="L307" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M307" s="62"/>
       <c r="N307" s="142" t="s">
@@ -33372,7 +33373,7 @@
         <v>559</v>
       </c>
       <c r="L308" s="62" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M308" s="62"/>
       <c r="N308" s="142" t="s">
@@ -33536,7 +33537,7 @@
         <v>559</v>
       </c>
       <c r="L312" s="62" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M312" s="62"/>
       <c r="N312" s="142" t="s">
@@ -33583,7 +33584,7 @@
         <v>503</v>
       </c>
       <c r="L313" s="62" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M313" s="62"/>
       <c r="N313" s="142" t="s">
@@ -33632,7 +33633,7 @@
         <v>559</v>
       </c>
       <c r="L314" s="62" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M314" s="62"/>
       <c r="N314" s="142" t="s">

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED31D1-CC64-4C0B-9067-F63B0D54BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756C1F4-D55A-4F7B-9B3C-17A080E5A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="584">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -6845,26 +6845,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のリクエストを送信する。
-・「顧客名」：パラメータなし</t>
-  </si>
-  <si>
-    <t>以下のレスポンスが返される。
-・ステータスコード：400
-・障害コード：FB1999901
-・メッセージ：clientName:入力してください。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>顧客が登録される</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -7756,6 +7736,12 @@
   </si>
   <si>
     <t>com.nablarch.example.climan.rest.client.ClientActionTest#testRegisterNoParameter()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のリクエストを送信する。
+・「顧客名」：パラメータなし
+・「業種コード」：パラメータなし</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8809,6 +8795,72 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8915,72 +8967,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10488,57 +10474,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="184" t="s">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="206" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="199" t="s">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="221" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="208" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="230" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="175" t="str">
+      <c r="AD1" s="231"/>
+      <c r="AE1" s="231"/>
+      <c r="AF1" s="232"/>
+      <c r="AG1" s="197" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10546,53 +10532,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="184" t="s">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="206" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="187" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="209" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="175" t="str">
+      <c r="AD2" s="210"/>
+      <c r="AE2" s="210"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="197" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10600,45 +10586,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="206" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="177"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="230"/>
+      <c r="AD3" s="231"/>
+      <c r="AE3" s="231"/>
+      <c r="AF3" s="232"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10675,85 +10661,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="178" t="s">
+      <c r="C7" s="201"/>
+      <c r="D7" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="178" t="s">
+      <c r="E7" s="202"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="180"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="178" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="178" t="s">
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="178" t="s">
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="202"/>
+      <c r="W7" s="202"/>
+      <c r="X7" s="202"/>
+      <c r="Y7" s="202"/>
+      <c r="Z7" s="202"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="202"/>
+      <c r="AD7" s="202"/>
+      <c r="AE7" s="201"/>
+      <c r="AF7" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="179"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="202"/>
+      <c r="AI7" s="201"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="223"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230"/>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="230"/>
-      <c r="AE8" s="231"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="196"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10761,1089 +10747,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="219"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="221"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="221"/>
-      <c r="AE9" s="222"/>
-      <c r="AF9" s="217"/>
-      <c r="AG9" s="218"/>
-      <c r="AH9" s="218"/>
-      <c r="AI9" s="219"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
+      <c r="U9" s="185"/>
+      <c r="V9" s="185"/>
+      <c r="W9" s="185"/>
+      <c r="X9" s="185"/>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="185"/>
+      <c r="AA9" s="185"/>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="185"/>
+      <c r="AD9" s="185"/>
+      <c r="AE9" s="186"/>
+      <c r="AF9" s="181"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="183"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="211"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="219"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
-      <c r="U10" s="221"/>
-      <c r="V10" s="221"/>
-      <c r="W10" s="221"/>
-      <c r="X10" s="221"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="221"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="221"/>
-      <c r="AC10" s="221"/>
-      <c r="AD10" s="221"/>
-      <c r="AE10" s="222"/>
-      <c r="AF10" s="217"/>
-      <c r="AG10" s="218"/>
-      <c r="AH10" s="218"/>
-      <c r="AI10" s="219"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
+      <c r="U10" s="185"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="185"/>
+      <c r="X10" s="185"/>
+      <c r="Y10" s="185"/>
+      <c r="Z10" s="185"/>
+      <c r="AA10" s="185"/>
+      <c r="AB10" s="185"/>
+      <c r="AC10" s="185"/>
+      <c r="AD10" s="185"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="181"/>
+      <c r="AG10" s="182"/>
+      <c r="AH10" s="182"/>
+      <c r="AI10" s="183"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="219"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="221"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-      <c r="X11" s="221"/>
-      <c r="Y11" s="221"/>
-      <c r="Z11" s="221"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="221"/>
-      <c r="AC11" s="221"/>
-      <c r="AD11" s="221"/>
-      <c r="AE11" s="222"/>
-      <c r="AF11" s="217"/>
-      <c r="AG11" s="218"/>
-      <c r="AH11" s="218"/>
-      <c r="AI11" s="219"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="183"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="185"/>
+      <c r="T11" s="185"/>
+      <c r="U11" s="185"/>
+      <c r="V11" s="185"/>
+      <c r="W11" s="185"/>
+      <c r="X11" s="185"/>
+      <c r="Y11" s="185"/>
+      <c r="Z11" s="185"/>
+      <c r="AA11" s="185"/>
+      <c r="AB11" s="185"/>
+      <c r="AC11" s="185"/>
+      <c r="AD11" s="185"/>
+      <c r="AE11" s="186"/>
+      <c r="AF11" s="181"/>
+      <c r="AG11" s="182"/>
+      <c r="AH11" s="182"/>
+      <c r="AI11" s="183"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="211"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="219"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="221"/>
-      <c r="S12" s="221"/>
-      <c r="T12" s="221"/>
-      <c r="U12" s="221"/>
-      <c r="V12" s="221"/>
-      <c r="W12" s="221"/>
-      <c r="X12" s="221"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="221"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="221"/>
-      <c r="AC12" s="221"/>
-      <c r="AD12" s="221"/>
-      <c r="AE12" s="222"/>
-      <c r="AF12" s="217"/>
-      <c r="AG12" s="218"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="219"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="185"/>
+      <c r="AD12" s="185"/>
+      <c r="AE12" s="186"/>
+      <c r="AF12" s="181"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="182"/>
+      <c r="AI12" s="183"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="219"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="221"/>
-      <c r="U13" s="221"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="221"/>
-      <c r="Y13" s="221"/>
-      <c r="Z13" s="221"/>
-      <c r="AA13" s="221"/>
-      <c r="AB13" s="221"/>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="221"/>
-      <c r="AE13" s="222"/>
-      <c r="AF13" s="217"/>
-      <c r="AG13" s="218"/>
-      <c r="AH13" s="218"/>
-      <c r="AI13" s="219"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="183"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="185"/>
+      <c r="T13" s="185"/>
+      <c r="U13" s="185"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="185"/>
+      <c r="Y13" s="185"/>
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="186"/>
+      <c r="AF13" s="181"/>
+      <c r="AG13" s="182"/>
+      <c r="AH13" s="182"/>
+      <c r="AI13" s="183"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="219"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="221"/>
-      <c r="U14" s="221"/>
-      <c r="V14" s="221"/>
-      <c r="W14" s="221"/>
-      <c r="X14" s="221"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="221"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="221"/>
-      <c r="AC14" s="221"/>
-      <c r="AD14" s="221"/>
-      <c r="AE14" s="222"/>
-      <c r="AF14" s="217"/>
-      <c r="AG14" s="218"/>
-      <c r="AH14" s="218"/>
-      <c r="AI14" s="219"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="183"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="186"/>
+      <c r="AF14" s="181"/>
+      <c r="AG14" s="182"/>
+      <c r="AH14" s="182"/>
+      <c r="AI14" s="183"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="221"/>
-      <c r="S15" s="221"/>
-      <c r="T15" s="221"/>
-      <c r="U15" s="221"/>
-      <c r="V15" s="221"/>
-      <c r="W15" s="221"/>
-      <c r="X15" s="221"/>
-      <c r="Y15" s="221"/>
-      <c r="Z15" s="221"/>
-      <c r="AA15" s="221"/>
-      <c r="AB15" s="221"/>
-      <c r="AC15" s="221"/>
-      <c r="AD15" s="221"/>
-      <c r="AE15" s="222"/>
-      <c r="AF15" s="217"/>
-      <c r="AG15" s="218"/>
-      <c r="AH15" s="218"/>
-      <c r="AI15" s="219"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="183"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="185"/>
+      <c r="T15" s="185"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="185"/>
+      <c r="Z15" s="185"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="181"/>
+      <c r="AG15" s="182"/>
+      <c r="AH15" s="182"/>
+      <c r="AI15" s="183"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="211"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="218"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="218"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
-      <c r="P16" s="219"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="221"/>
-      <c r="S16" s="221"/>
-      <c r="T16" s="221"/>
-      <c r="U16" s="221"/>
-      <c r="V16" s="221"/>
-      <c r="W16" s="221"/>
-      <c r="X16" s="221"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="221"/>
-      <c r="AA16" s="221"/>
-      <c r="AB16" s="221"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="221"/>
-      <c r="AE16" s="222"/>
-      <c r="AF16" s="217"/>
-      <c r="AG16" s="218"/>
-      <c r="AH16" s="218"/>
-      <c r="AI16" s="219"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="183"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="185"/>
+      <c r="Z16" s="185"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="186"/>
+      <c r="AF16" s="181"/>
+      <c r="AG16" s="182"/>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="183"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="211"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="219"/>
-      <c r="Q17" s="220"/>
-      <c r="R17" s="221"/>
-      <c r="S17" s="221"/>
-      <c r="T17" s="221"/>
-      <c r="U17" s="221"/>
-      <c r="V17" s="221"/>
-      <c r="W17" s="221"/>
-      <c r="X17" s="221"/>
-      <c r="Y17" s="221"/>
-      <c r="Z17" s="221"/>
-      <c r="AA17" s="221"/>
-      <c r="AB17" s="221"/>
-      <c r="AC17" s="221"/>
-      <c r="AD17" s="221"/>
-      <c r="AE17" s="222"/>
-      <c r="AF17" s="217"/>
-      <c r="AG17" s="218"/>
-      <c r="AH17" s="218"/>
-      <c r="AI17" s="219"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="185"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="186"/>
+      <c r="AF17" s="181"/>
+      <c r="AG17" s="182"/>
+      <c r="AH17" s="182"/>
+      <c r="AI17" s="183"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="211"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="219"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="221"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="221"/>
-      <c r="U18" s="221"/>
-      <c r="V18" s="221"/>
-      <c r="W18" s="221"/>
-      <c r="X18" s="221"/>
-      <c r="Y18" s="221"/>
-      <c r="Z18" s="221"/>
-      <c r="AA18" s="221"/>
-      <c r="AB18" s="221"/>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="221"/>
-      <c r="AE18" s="222"/>
-      <c r="AF18" s="217"/>
-      <c r="AG18" s="218"/>
-      <c r="AH18" s="218"/>
-      <c r="AI18" s="219"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="186"/>
+      <c r="AF18" s="181"/>
+      <c r="AG18" s="182"/>
+      <c r="AH18" s="182"/>
+      <c r="AI18" s="183"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="219"/>
-      <c r="Q19" s="220"/>
-      <c r="R19" s="221"/>
-      <c r="S19" s="221"/>
-      <c r="T19" s="221"/>
-      <c r="U19" s="221"/>
-      <c r="V19" s="221"/>
-      <c r="W19" s="221"/>
-      <c r="X19" s="221"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="221"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="221"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="221"/>
-      <c r="AE19" s="222"/>
-      <c r="AF19" s="217"/>
-      <c r="AG19" s="218"/>
-      <c r="AH19" s="218"/>
-      <c r="AI19" s="219"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="185"/>
+      <c r="S19" s="185"/>
+      <c r="T19" s="185"/>
+      <c r="U19" s="185"/>
+      <c r="V19" s="185"/>
+      <c r="W19" s="185"/>
+      <c r="X19" s="185"/>
+      <c r="Y19" s="185"/>
+      <c r="Z19" s="185"/>
+      <c r="AA19" s="185"/>
+      <c r="AB19" s="185"/>
+      <c r="AC19" s="185"/>
+      <c r="AD19" s="185"/>
+      <c r="AE19" s="186"/>
+      <c r="AF19" s="181"/>
+      <c r="AG19" s="182"/>
+      <c r="AH19" s="182"/>
+      <c r="AI19" s="183"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="211"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="219"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="221"/>
-      <c r="S20" s="221"/>
-      <c r="T20" s="221"/>
-      <c r="U20" s="221"/>
-      <c r="V20" s="221"/>
-      <c r="W20" s="221"/>
-      <c r="X20" s="221"/>
-      <c r="Y20" s="221"/>
-      <c r="Z20" s="221"/>
-      <c r="AA20" s="221"/>
-      <c r="AB20" s="221"/>
-      <c r="AC20" s="221"/>
-      <c r="AD20" s="221"/>
-      <c r="AE20" s="222"/>
-      <c r="AF20" s="217"/>
-      <c r="AG20" s="218"/>
-      <c r="AH20" s="218"/>
-      <c r="AI20" s="219"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="185"/>
+      <c r="S20" s="185"/>
+      <c r="T20" s="185"/>
+      <c r="U20" s="185"/>
+      <c r="V20" s="185"/>
+      <c r="W20" s="185"/>
+      <c r="X20" s="185"/>
+      <c r="Y20" s="185"/>
+      <c r="Z20" s="185"/>
+      <c r="AA20" s="185"/>
+      <c r="AB20" s="185"/>
+      <c r="AC20" s="185"/>
+      <c r="AD20" s="185"/>
+      <c r="AE20" s="186"/>
+      <c r="AF20" s="181"/>
+      <c r="AG20" s="182"/>
+      <c r="AH20" s="182"/>
+      <c r="AI20" s="183"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="211"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="217"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="219"/>
-      <c r="Q21" s="220"/>
-      <c r="R21" s="221"/>
-      <c r="S21" s="221"/>
-      <c r="T21" s="221"/>
-      <c r="U21" s="221"/>
-      <c r="V21" s="221"/>
-      <c r="W21" s="221"/>
-      <c r="X21" s="221"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="221"/>
-      <c r="AA21" s="221"/>
-      <c r="AB21" s="221"/>
-      <c r="AC21" s="221"/>
-      <c r="AD21" s="221"/>
-      <c r="AE21" s="222"/>
-      <c r="AF21" s="217"/>
-      <c r="AG21" s="218"/>
-      <c r="AH21" s="218"/>
-      <c r="AI21" s="219"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="185"/>
+      <c r="S21" s="185"/>
+      <c r="T21" s="185"/>
+      <c r="U21" s="185"/>
+      <c r="V21" s="185"/>
+      <c r="W21" s="185"/>
+      <c r="X21" s="185"/>
+      <c r="Y21" s="185"/>
+      <c r="Z21" s="185"/>
+      <c r="AA21" s="185"/>
+      <c r="AB21" s="185"/>
+      <c r="AC21" s="185"/>
+      <c r="AD21" s="185"/>
+      <c r="AE21" s="186"/>
+      <c r="AF21" s="181"/>
+      <c r="AG21" s="182"/>
+      <c r="AH21" s="182"/>
+      <c r="AI21" s="183"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="211"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="217"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="220"/>
-      <c r="R22" s="221"/>
-      <c r="S22" s="221"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
-      <c r="W22" s="221"/>
-      <c r="X22" s="221"/>
-      <c r="Y22" s="221"/>
-      <c r="Z22" s="221"/>
-      <c r="AA22" s="221"/>
-      <c r="AB22" s="221"/>
-      <c r="AC22" s="221"/>
-      <c r="AD22" s="221"/>
-      <c r="AE22" s="222"/>
-      <c r="AF22" s="217"/>
-      <c r="AG22" s="218"/>
-      <c r="AH22" s="218"/>
-      <c r="AI22" s="219"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="185"/>
+      <c r="S22" s="185"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="185"/>
+      <c r="V22" s="185"/>
+      <c r="W22" s="185"/>
+      <c r="X22" s="185"/>
+      <c r="Y22" s="185"/>
+      <c r="Z22" s="185"/>
+      <c r="AA22" s="185"/>
+      <c r="AB22" s="185"/>
+      <c r="AC22" s="185"/>
+      <c r="AD22" s="185"/>
+      <c r="AE22" s="186"/>
+      <c r="AF22" s="181"/>
+      <c r="AG22" s="182"/>
+      <c r="AH22" s="182"/>
+      <c r="AI22" s="183"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="219"/>
-      <c r="Q23" s="220"/>
-      <c r="R23" s="221"/>
-      <c r="S23" s="221"/>
-      <c r="T23" s="221"/>
-      <c r="U23" s="221"/>
-      <c r="V23" s="221"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="221"/>
-      <c r="Y23" s="221"/>
-      <c r="Z23" s="221"/>
-      <c r="AA23" s="221"/>
-      <c r="AB23" s="221"/>
-      <c r="AC23" s="221"/>
-      <c r="AD23" s="221"/>
-      <c r="AE23" s="222"/>
-      <c r="AF23" s="217"/>
-      <c r="AG23" s="218"/>
-      <c r="AH23" s="218"/>
-      <c r="AI23" s="219"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="185"/>
+      <c r="X23" s="185"/>
+      <c r="Y23" s="185"/>
+      <c r="Z23" s="185"/>
+      <c r="AA23" s="185"/>
+      <c r="AB23" s="185"/>
+      <c r="AC23" s="185"/>
+      <c r="AD23" s="185"/>
+      <c r="AE23" s="186"/>
+      <c r="AF23" s="181"/>
+      <c r="AG23" s="182"/>
+      <c r="AH23" s="182"/>
+      <c r="AI23" s="183"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="211"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="217"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="219"/>
-      <c r="Q24" s="220"/>
-      <c r="R24" s="221"/>
-      <c r="S24" s="221"/>
-      <c r="T24" s="221"/>
-      <c r="U24" s="221"/>
-      <c r="V24" s="221"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
-      <c r="Y24" s="221"/>
-      <c r="Z24" s="221"/>
-      <c r="AA24" s="221"/>
-      <c r="AB24" s="221"/>
-      <c r="AC24" s="221"/>
-      <c r="AD24" s="221"/>
-      <c r="AE24" s="222"/>
-      <c r="AF24" s="217"/>
-      <c r="AG24" s="218"/>
-      <c r="AH24" s="218"/>
-      <c r="AI24" s="219"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+      <c r="U24" s="185"/>
+      <c r="V24" s="185"/>
+      <c r="W24" s="185"/>
+      <c r="X24" s="185"/>
+      <c r="Y24" s="185"/>
+      <c r="Z24" s="185"/>
+      <c r="AA24" s="185"/>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="185"/>
+      <c r="AD24" s="185"/>
+      <c r="AE24" s="186"/>
+      <c r="AF24" s="181"/>
+      <c r="AG24" s="182"/>
+      <c r="AH24" s="182"/>
+      <c r="AI24" s="183"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="211"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="217"/>
-      <c r="K25" s="218"/>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="219"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="221"/>
-      <c r="AC25" s="221"/>
-      <c r="AD25" s="221"/>
-      <c r="AE25" s="222"/>
-      <c r="AF25" s="217"/>
-      <c r="AG25" s="218"/>
-      <c r="AH25" s="218"/>
-      <c r="AI25" s="219"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="185"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+      <c r="U25" s="185"/>
+      <c r="V25" s="185"/>
+      <c r="W25" s="185"/>
+      <c r="X25" s="185"/>
+      <c r="Y25" s="185"/>
+      <c r="Z25" s="185"/>
+      <c r="AA25" s="185"/>
+      <c r="AB25" s="185"/>
+      <c r="AC25" s="185"/>
+      <c r="AD25" s="185"/>
+      <c r="AE25" s="186"/>
+      <c r="AF25" s="181"/>
+      <c r="AG25" s="182"/>
+      <c r="AH25" s="182"/>
+      <c r="AI25" s="183"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="218"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="219"/>
-      <c r="Q26" s="220"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
-      <c r="Y26" s="221"/>
-      <c r="Z26" s="221"/>
-      <c r="AA26" s="221"/>
-      <c r="AB26" s="221"/>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="221"/>
-      <c r="AE26" s="222"/>
-      <c r="AF26" s="217"/>
-      <c r="AG26" s="218"/>
-      <c r="AH26" s="218"/>
-      <c r="AI26" s="219"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="185"/>
+      <c r="S26" s="185"/>
+      <c r="T26" s="185"/>
+      <c r="U26" s="185"/>
+      <c r="V26" s="185"/>
+      <c r="W26" s="185"/>
+      <c r="X26" s="185"/>
+      <c r="Y26" s="185"/>
+      <c r="Z26" s="185"/>
+      <c r="AA26" s="185"/>
+      <c r="AB26" s="185"/>
+      <c r="AC26" s="185"/>
+      <c r="AD26" s="185"/>
+      <c r="AE26" s="186"/>
+      <c r="AF26" s="181"/>
+      <c r="AG26" s="182"/>
+      <c r="AH26" s="182"/>
+      <c r="AI26" s="183"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="217"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="220"/>
-      <c r="R27" s="221"/>
-      <c r="S27" s="221"/>
-      <c r="T27" s="221"/>
-      <c r="U27" s="221"/>
-      <c r="V27" s="221"/>
-      <c r="W27" s="221"/>
-      <c r="X27" s="221"/>
-      <c r="Y27" s="221"/>
-      <c r="Z27" s="221"/>
-      <c r="AA27" s="221"/>
-      <c r="AB27" s="221"/>
-      <c r="AC27" s="221"/>
-      <c r="AD27" s="221"/>
-      <c r="AE27" s="222"/>
-      <c r="AF27" s="217"/>
-      <c r="AG27" s="218"/>
-      <c r="AH27" s="218"/>
-      <c r="AI27" s="219"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="185"/>
+      <c r="S27" s="185"/>
+      <c r="T27" s="185"/>
+      <c r="U27" s="185"/>
+      <c r="V27" s="185"/>
+      <c r="W27" s="185"/>
+      <c r="X27" s="185"/>
+      <c r="Y27" s="185"/>
+      <c r="Z27" s="185"/>
+      <c r="AA27" s="185"/>
+      <c r="AB27" s="185"/>
+      <c r="AC27" s="185"/>
+      <c r="AD27" s="185"/>
+      <c r="AE27" s="186"/>
+      <c r="AF27" s="181"/>
+      <c r="AG27" s="182"/>
+      <c r="AH27" s="182"/>
+      <c r="AI27" s="183"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="217"/>
-      <c r="K28" s="218"/>
-      <c r="L28" s="218"/>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="219"/>
-      <c r="Q28" s="220"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="221"/>
-      <c r="U28" s="221"/>
-      <c r="V28" s="221"/>
-      <c r="W28" s="221"/>
-      <c r="X28" s="221"/>
-      <c r="Y28" s="221"/>
-      <c r="Z28" s="221"/>
-      <c r="AA28" s="221"/>
-      <c r="AB28" s="221"/>
-      <c r="AC28" s="221"/>
-      <c r="AD28" s="221"/>
-      <c r="AE28" s="222"/>
-      <c r="AF28" s="217"/>
-      <c r="AG28" s="218"/>
-      <c r="AH28" s="218"/>
-      <c r="AI28" s="219"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="185"/>
+      <c r="U28" s="185"/>
+      <c r="V28" s="185"/>
+      <c r="W28" s="185"/>
+      <c r="X28" s="185"/>
+      <c r="Y28" s="185"/>
+      <c r="Z28" s="185"/>
+      <c r="AA28" s="185"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="185"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="186"/>
+      <c r="AF28" s="181"/>
+      <c r="AG28" s="182"/>
+      <c r="AH28" s="182"/>
+      <c r="AI28" s="183"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="211"/>
-      <c r="C29" s="212"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="212"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="219"/>
-      <c r="Q29" s="220"/>
-      <c r="R29" s="221"/>
-      <c r="S29" s="221"/>
-      <c r="T29" s="221"/>
-      <c r="U29" s="221"/>
-      <c r="V29" s="221"/>
-      <c r="W29" s="221"/>
-      <c r="X29" s="221"/>
-      <c r="Y29" s="221"/>
-      <c r="Z29" s="221"/>
-      <c r="AA29" s="221"/>
-      <c r="AB29" s="221"/>
-      <c r="AC29" s="221"/>
-      <c r="AD29" s="221"/>
-      <c r="AE29" s="222"/>
-      <c r="AF29" s="217"/>
-      <c r="AG29" s="218"/>
-      <c r="AH29" s="218"/>
-      <c r="AI29" s="219"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="185"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="185"/>
+      <c r="U29" s="185"/>
+      <c r="V29" s="185"/>
+      <c r="W29" s="185"/>
+      <c r="X29" s="185"/>
+      <c r="Y29" s="185"/>
+      <c r="Z29" s="185"/>
+      <c r="AA29" s="185"/>
+      <c r="AB29" s="185"/>
+      <c r="AC29" s="185"/>
+      <c r="AD29" s="185"/>
+      <c r="AE29" s="186"/>
+      <c r="AF29" s="181"/>
+      <c r="AG29" s="182"/>
+      <c r="AH29" s="182"/>
+      <c r="AI29" s="183"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="217"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="218"/>
-      <c r="M30" s="218"/>
-      <c r="N30" s="218"/>
-      <c r="O30" s="218"/>
-      <c r="P30" s="219"/>
-      <c r="Q30" s="220"/>
-      <c r="R30" s="221"/>
-      <c r="S30" s="221"/>
-      <c r="T30" s="221"/>
-      <c r="U30" s="221"/>
-      <c r="V30" s="221"/>
-      <c r="W30" s="221"/>
-      <c r="X30" s="221"/>
-      <c r="Y30" s="221"/>
-      <c r="Z30" s="221"/>
-      <c r="AA30" s="221"/>
-      <c r="AB30" s="221"/>
-      <c r="AC30" s="221"/>
-      <c r="AD30" s="221"/>
-      <c r="AE30" s="222"/>
-      <c r="AF30" s="217"/>
-      <c r="AG30" s="218"/>
-      <c r="AH30" s="218"/>
-      <c r="AI30" s="219"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="185"/>
+      <c r="S30" s="185"/>
+      <c r="T30" s="185"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="185"/>
+      <c r="W30" s="185"/>
+      <c r="X30" s="185"/>
+      <c r="Y30" s="185"/>
+      <c r="Z30" s="185"/>
+      <c r="AA30" s="185"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="185"/>
+      <c r="AD30" s="185"/>
+      <c r="AE30" s="186"/>
+      <c r="AF30" s="181"/>
+      <c r="AG30" s="182"/>
+      <c r="AH30" s="182"/>
+      <c r="AI30" s="183"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="218"/>
-      <c r="L31" s="218"/>
-      <c r="M31" s="218"/>
-      <c r="N31" s="218"/>
-      <c r="O31" s="218"/>
-      <c r="P31" s="219"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="221"/>
-      <c r="S31" s="221"/>
-      <c r="T31" s="221"/>
-      <c r="U31" s="221"/>
-      <c r="V31" s="221"/>
-      <c r="W31" s="221"/>
-      <c r="X31" s="221"/>
-      <c r="Y31" s="221"/>
-      <c r="Z31" s="221"/>
-      <c r="AA31" s="221"/>
-      <c r="AB31" s="221"/>
-      <c r="AC31" s="221"/>
-      <c r="AD31" s="221"/>
-      <c r="AE31" s="222"/>
-      <c r="AF31" s="217"/>
-      <c r="AG31" s="218"/>
-      <c r="AH31" s="218"/>
-      <c r="AI31" s="219"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="185"/>
+      <c r="S31" s="185"/>
+      <c r="T31" s="185"/>
+      <c r="U31" s="185"/>
+      <c r="V31" s="185"/>
+      <c r="W31" s="185"/>
+      <c r="X31" s="185"/>
+      <c r="Y31" s="185"/>
+      <c r="Z31" s="185"/>
+      <c r="AA31" s="185"/>
+      <c r="AB31" s="185"/>
+      <c r="AC31" s="185"/>
+      <c r="AD31" s="185"/>
+      <c r="AE31" s="186"/>
+      <c r="AF31" s="181"/>
+      <c r="AG31" s="182"/>
+      <c r="AH31" s="182"/>
+      <c r="AI31" s="183"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="212"/>
-      <c r="J32" s="217"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="220"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
-      <c r="W32" s="221"/>
-      <c r="X32" s="221"/>
-      <c r="Y32" s="221"/>
-      <c r="Z32" s="221"/>
-      <c r="AA32" s="221"/>
-      <c r="AB32" s="221"/>
-      <c r="AC32" s="221"/>
-      <c r="AD32" s="221"/>
-      <c r="AE32" s="222"/>
-      <c r="AF32" s="217"/>
-      <c r="AG32" s="218"/>
-      <c r="AH32" s="218"/>
-      <c r="AI32" s="219"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="184"/>
+      <c r="R32" s="185"/>
+      <c r="S32" s="185"/>
+      <c r="T32" s="185"/>
+      <c r="U32" s="185"/>
+      <c r="V32" s="185"/>
+      <c r="W32" s="185"/>
+      <c r="X32" s="185"/>
+      <c r="Y32" s="185"/>
+      <c r="Z32" s="185"/>
+      <c r="AA32" s="185"/>
+      <c r="AB32" s="185"/>
+      <c r="AC32" s="185"/>
+      <c r="AD32" s="185"/>
+      <c r="AE32" s="186"/>
+      <c r="AF32" s="181"/>
+      <c r="AG32" s="182"/>
+      <c r="AH32" s="182"/>
+      <c r="AI32" s="183"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="218"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="218"/>
-      <c r="N33" s="218"/>
-      <c r="O33" s="218"/>
-      <c r="P33" s="219"/>
-      <c r="Q33" s="220"/>
-      <c r="R33" s="221"/>
-      <c r="S33" s="221"/>
-      <c r="T33" s="221"/>
-      <c r="U33" s="221"/>
-      <c r="V33" s="221"/>
-      <c r="W33" s="221"/>
-      <c r="X33" s="221"/>
-      <c r="Y33" s="221"/>
-      <c r="Z33" s="221"/>
-      <c r="AA33" s="221"/>
-      <c r="AB33" s="221"/>
-      <c r="AC33" s="221"/>
-      <c r="AD33" s="221"/>
-      <c r="AE33" s="222"/>
-      <c r="AF33" s="217"/>
-      <c r="AG33" s="218"/>
-      <c r="AH33" s="218"/>
-      <c r="AI33" s="219"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="185"/>
+      <c r="S33" s="185"/>
+      <c r="T33" s="185"/>
+      <c r="U33" s="185"/>
+      <c r="V33" s="185"/>
+      <c r="W33" s="185"/>
+      <c r="X33" s="185"/>
+      <c r="Y33" s="185"/>
+      <c r="Z33" s="185"/>
+      <c r="AA33" s="185"/>
+      <c r="AB33" s="185"/>
+      <c r="AC33" s="185"/>
+      <c r="AD33" s="185"/>
+      <c r="AE33" s="186"/>
+      <c r="AF33" s="181"/>
+      <c r="AG33" s="182"/>
+      <c r="AH33" s="182"/>
+      <c r="AI33" s="183"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11867,6 +11698,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11937,7 +11923,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>9</v>
@@ -13067,7 +13053,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G40" s="51"/>
       <c r="H40" s="51" t="s">
@@ -13103,7 +13089,7 @@
       <c r="D41" s="136"/>
       <c r="E41" s="137"/>
       <c r="F41" s="108" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G41" s="138"/>
       <c r="H41" s="138" t="s">
@@ -13116,19 +13102,19 @@
         <v>499</v>
       </c>
       <c r="K41" s="140" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L41" s="141" t="s">
+        <v>569</v>
+      </c>
+      <c r="M41" s="142" t="s">
         <v>571</v>
-      </c>
-      <c r="M41" s="142" t="s">
-        <v>573</v>
       </c>
       <c r="N41" s="144">
         <v>44858</v>
       </c>
       <c r="O41" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P41" s="142"/>
       <c r="Q41" s="143"/>
@@ -13151,14 +13137,14 @@
       <c r="D42" s="136"/>
       <c r="E42" s="137"/>
       <c r="F42" s="98" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G42" s="51"/>
       <c r="H42" s="51" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J42" s="64"/>
       <c r="K42" s="65"/>
@@ -13187,32 +13173,32 @@
       <c r="D43" s="145"/>
       <c r="E43" s="146"/>
       <c r="F43" s="108" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G43" s="138"/>
       <c r="H43" s="138" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I43" s="138" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J43" s="139" t="s">
         <v>502</v>
       </c>
       <c r="K43" s="140" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L43" s="141" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M43" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N43" s="144">
         <v>44858</v>
       </c>
       <c r="O43" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P43" s="142"/>
       <c r="Q43" s="143"/>
@@ -22313,7 +22299,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -23494,23 +23480,23 @@
         <v>508</v>
       </c>
       <c r="J42" s="141" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="K42" s="141" t="s">
-        <v>510</v>
+        <v>557</v>
       </c>
       <c r="L42" s="143" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M42" s="143"/>
       <c r="N42" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O42" s="144">
         <v>44858</v>
       </c>
       <c r="P42" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q42" s="153"/>
       <c r="R42" s="141"/>
@@ -23543,23 +23529,23 @@
         <v>498</v>
       </c>
       <c r="J43" s="141" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K43" s="141" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L43" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M43" s="143"/>
       <c r="N43" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O43" s="144">
         <v>44858</v>
       </c>
       <c r="P43" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q43" s="153"/>
       <c r="R43" s="141"/>
@@ -23602,17 +23588,17 @@
         <v>503</v>
       </c>
       <c r="L44" s="143" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M44" s="143"/>
       <c r="N44" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O44" s="144">
         <v>44858</v>
       </c>
       <c r="P44" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q44" s="153"/>
       <c r="R44" s="141"/>
@@ -23648,20 +23634,20 @@
         <v>499</v>
       </c>
       <c r="K45" s="141" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L45" s="143" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M45" s="143"/>
       <c r="N45" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O45" s="144">
         <v>44858</v>
       </c>
       <c r="P45" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q45" s="153"/>
       <c r="R45" s="141"/>
@@ -23698,7 +23684,7 @@
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
       <c r="J46" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K46" s="65"/>
       <c r="L46" s="67"/>
@@ -23733,7 +23719,7 @@
       <c r="H47" s="42"/>
       <c r="I47" s="51"/>
       <c r="J47" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K47" s="65"/>
       <c r="L47" s="67"/>
@@ -23768,7 +23754,7 @@
       <c r="H48" s="42"/>
       <c r="I48" s="51"/>
       <c r="J48" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K48" s="65"/>
       <c r="L48" s="67"/>
@@ -23805,7 +23791,7 @@
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K49" s="66"/>
       <c r="L49" s="67"/>
@@ -23840,7 +23826,7 @@
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
       <c r="J50" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K50" s="66"/>
       <c r="L50" s="67"/>
@@ -23875,7 +23861,7 @@
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K51" s="66"/>
       <c r="L51" s="67"/>
@@ -23912,7 +23898,7 @@
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K52" s="65"/>
       <c r="L52" s="67"/>
@@ -23947,7 +23933,7 @@
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K53" s="65"/>
       <c r="L53" s="67"/>
@@ -23984,7 +23970,7 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K54" s="66"/>
       <c r="L54" s="67"/>
@@ -24019,7 +24005,7 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K55" s="66"/>
       <c r="L55" s="67"/>
@@ -24054,7 +24040,7 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K56" s="66"/>
       <c r="L56" s="67"/>
@@ -24089,7 +24075,7 @@
       <c r="H57" s="67"/>
       <c r="I57" s="67"/>
       <c r="J57" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K57" s="66"/>
       <c r="L57" s="67"/>
@@ -24124,7 +24110,7 @@
       <c r="H58" s="67"/>
       <c r="I58" s="67"/>
       <c r="J58" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K58" s="66"/>
       <c r="L58" s="67"/>
@@ -24159,7 +24145,7 @@
       <c r="H59" s="67"/>
       <c r="I59" s="67"/>
       <c r="J59" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K59" s="66"/>
       <c r="L59" s="67"/>
@@ -24196,7 +24182,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K60" s="65"/>
       <c r="L60" s="67"/>
@@ -24233,7 +24219,7 @@
       <c r="H61" s="67"/>
       <c r="I61" s="67"/>
       <c r="J61" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K61" s="66"/>
       <c r="L61" s="67"/>
@@ -24270,7 +24256,7 @@
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K62" s="66"/>
       <c r="L62" s="67"/>
@@ -24313,23 +24299,23 @@
         <v>498</v>
       </c>
       <c r="J63" s="61" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K63" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L63" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M63" s="62"/>
       <c r="N63" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O63" s="144">
         <v>44858</v>
       </c>
       <c r="P63" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q63" s="106"/>
       <c r="R63" s="61"/>
@@ -24358,7 +24344,7 @@
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="66" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K64" s="65"/>
       <c r="L64" s="67"/>
@@ -24393,7 +24379,7 @@
       <c r="H65" s="67"/>
       <c r="I65" s="67"/>
       <c r="J65" s="66" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K65" s="66"/>
       <c r="L65" s="67"/>
@@ -24428,7 +24414,7 @@
       <c r="H66" s="67"/>
       <c r="I66" s="67"/>
       <c r="J66" s="66" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K66" s="66"/>
       <c r="L66" s="67"/>
@@ -24463,7 +24449,7 @@
       <c r="H67" s="67"/>
       <c r="I67" s="67"/>
       <c r="J67" s="66" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K67" s="66"/>
       <c r="L67" s="67"/>
@@ -24500,7 +24486,7 @@
       <c r="H68" s="67"/>
       <c r="I68" s="67"/>
       <c r="J68" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K68" s="66"/>
       <c r="L68" s="67"/>
@@ -24535,7 +24521,7 @@
       <c r="H69" s="67"/>
       <c r="I69" s="67"/>
       <c r="J69" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K69" s="66"/>
       <c r="L69" s="67"/>
@@ -24570,7 +24556,7 @@
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
       <c r="J70" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K70" s="66"/>
       <c r="L70" s="67"/>
@@ -24605,7 +24591,7 @@
       <c r="H71" s="67"/>
       <c r="I71" s="67"/>
       <c r="J71" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K71" s="66"/>
       <c r="L71" s="67"/>
@@ -24640,7 +24626,7 @@
       <c r="H72" s="67"/>
       <c r="I72" s="67"/>
       <c r="J72" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K72" s="66"/>
       <c r="L72" s="67"/>
@@ -24675,7 +24661,7 @@
       <c r="H73" s="67"/>
       <c r="I73" s="67"/>
       <c r="J73" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K73" s="66"/>
       <c r="L73" s="67"/>
@@ -24710,7 +24696,7 @@
       <c r="H74" s="67"/>
       <c r="I74" s="67"/>
       <c r="J74" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K74" s="66"/>
       <c r="L74" s="67"/>
@@ -24745,7 +24731,7 @@
       <c r="H75" s="67"/>
       <c r="I75" s="67"/>
       <c r="J75" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K75" s="66"/>
       <c r="L75" s="67"/>
@@ -24780,29 +24766,29 @@
       </c>
       <c r="G76" s="60"/>
       <c r="H76" s="60" t="s">
+        <v>521</v>
+      </c>
+      <c r="I76" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="J76" s="110" t="s">
         <v>523</v>
       </c>
-      <c r="I76" s="60" t="s">
+      <c r="K76" s="110" t="s">
         <v>524</v>
       </c>
-      <c r="J76" s="110" t="s">
-        <v>525</v>
-      </c>
-      <c r="K76" s="110" t="s">
-        <v>526</v>
-      </c>
       <c r="L76" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M76" s="63"/>
       <c r="N76" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O76" s="144">
         <v>44858</v>
       </c>
       <c r="P76" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q76" s="106"/>
       <c r="R76" s="61"/>
@@ -24827,29 +24813,29 @@
       <c r="F77" s="165"/>
       <c r="G77" s="60"/>
       <c r="H77" s="60" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I77" s="60" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J77" s="110" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K77" s="110" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L77" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M77" s="63"/>
       <c r="N77" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O77" s="144">
         <v>44858</v>
       </c>
       <c r="P77" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q77" s="106"/>
       <c r="R77" s="61"/>
@@ -24874,29 +24860,29 @@
       <c r="F78" s="165"/>
       <c r="G78" s="60"/>
       <c r="H78" s="60" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I78" s="60" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J78" s="110" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K78" s="110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L78" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M78" s="63"/>
       <c r="N78" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O78" s="144">
         <v>44858</v>
       </c>
       <c r="P78" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q78" s="106"/>
       <c r="R78" s="61"/>
@@ -24921,16 +24907,16 @@
       <c r="F79" s="166"/>
       <c r="G79" s="60"/>
       <c r="H79" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="I79" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="J79" s="65" t="s">
         <v>523</v>
       </c>
-      <c r="I79" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="J79" s="65" t="s">
-        <v>525</v>
-      </c>
       <c r="K79" s="65" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L79" s="159"/>
       <c r="M79" s="159"/>
@@ -24964,29 +24950,29 @@
       </c>
       <c r="G80" s="61"/>
       <c r="H80" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="I80" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="J80" s="110" t="s">
         <v>535</v>
       </c>
-      <c r="I80" s="62" t="s">
-        <v>536</v>
-      </c>
-      <c r="J80" s="110" t="s">
-        <v>537</v>
-      </c>
       <c r="K80" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L80" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M80" s="62"/>
       <c r="N80" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O80" s="144">
         <v>44858</v>
       </c>
       <c r="P80" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q80" s="106"/>
       <c r="R80" s="61"/>
@@ -25015,7 +25001,7 @@
       <c r="H81" s="67"/>
       <c r="I81" s="67"/>
       <c r="J81" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K81" s="66"/>
       <c r="L81" s="67"/>
@@ -25050,7 +25036,7 @@
       <c r="H82" s="67"/>
       <c r="I82" s="67"/>
       <c r="J82" s="65" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K82" s="66"/>
       <c r="L82" s="67"/>
@@ -25085,7 +25071,7 @@
       <c r="H83" s="67"/>
       <c r="I83" s="67"/>
       <c r="J83" s="65" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K83" s="66"/>
       <c r="L83" s="67"/>
@@ -25160,7 +25146,7 @@
       <c r="H85" s="51"/>
       <c r="I85" s="51"/>
       <c r="J85" s="65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K85" s="65"/>
       <c r="L85" s="67"/>
@@ -25195,7 +25181,7 @@
       <c r="H86" s="51"/>
       <c r="I86" s="51"/>
       <c r="J86" s="65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K86" s="65"/>
       <c r="L86" s="67"/>
@@ -25232,7 +25218,7 @@
       <c r="H87" s="67"/>
       <c r="I87" s="67"/>
       <c r="J87" s="65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K87" s="66"/>
       <c r="L87" s="67"/>
@@ -25269,7 +25255,7 @@
       <c r="H88" s="67"/>
       <c r="I88" s="67"/>
       <c r="J88" s="65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K88" s="66"/>
       <c r="L88" s="67"/>
@@ -25304,7 +25290,7 @@
       <c r="H89" s="67"/>
       <c r="I89" s="67"/>
       <c r="J89" s="65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K89" s="66"/>
       <c r="L89" s="67"/>
@@ -25341,7 +25327,7 @@
       <c r="H90" s="67"/>
       <c r="I90" s="67"/>
       <c r="J90" s="65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K90" s="66"/>
       <c r="L90" s="67"/>
@@ -25378,7 +25364,7 @@
       <c r="H91" s="67"/>
       <c r="I91" s="67"/>
       <c r="J91" s="65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K91" s="66"/>
       <c r="L91" s="67"/>
@@ -25423,23 +25409,23 @@
         <v>498</v>
       </c>
       <c r="J92" s="61" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K92" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L92" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M92" s="62"/>
       <c r="N92" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O92" s="144">
         <v>44858</v>
       </c>
       <c r="P92" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q92" s="106"/>
       <c r="R92" s="61"/>
@@ -25474,23 +25460,23 @@
         <v>498</v>
       </c>
       <c r="J93" s="61" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K93" s="61" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L93" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M93" s="62"/>
       <c r="N93" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O93" s="144">
         <v>44858</v>
       </c>
       <c r="P93" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q93" s="106"/>
       <c r="R93" s="61"/>
@@ -25528,20 +25514,20 @@
         <v>502</v>
       </c>
       <c r="K94" s="61" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L94" s="143" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M94" s="62"/>
       <c r="N94" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O94" s="144">
         <v>44858</v>
       </c>
       <c r="P94" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q94" s="106"/>
       <c r="R94" s="61"/>
@@ -25576,7 +25562,7 @@
       <c r="H95" s="51"/>
       <c r="I95" s="51"/>
       <c r="J95" s="65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K95" s="67"/>
       <c r="L95" s="67"/>
@@ -25611,7 +25597,7 @@
       <c r="H96" s="67"/>
       <c r="I96" s="67"/>
       <c r="J96" s="65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K96" s="66"/>
       <c r="L96" s="67"/>
@@ -25648,7 +25634,7 @@
       <c r="H97" s="67"/>
       <c r="I97" s="67"/>
       <c r="J97" s="65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K97" s="66"/>
       <c r="L97" s="67"/>
@@ -25685,7 +25671,7 @@
       <c r="H98" s="67"/>
       <c r="I98" s="67"/>
       <c r="J98" s="65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K98" s="66"/>
       <c r="L98" s="67"/>
@@ -25720,7 +25706,7 @@
       <c r="H99" s="67"/>
       <c r="I99" s="67"/>
       <c r="J99" s="65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K99" s="66"/>
       <c r="L99" s="67"/>
@@ -25757,7 +25743,7 @@
       <c r="H100" s="67"/>
       <c r="I100" s="67"/>
       <c r="J100" s="65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K100" s="66"/>
       <c r="L100" s="67"/>
@@ -25798,7 +25784,7 @@
       <c r="H101" s="67"/>
       <c r="I101" s="67"/>
       <c r="J101" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K101" s="66"/>
       <c r="L101" s="67"/>
@@ -25833,7 +25819,7 @@
       <c r="H102" s="67"/>
       <c r="I102" s="67"/>
       <c r="J102" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K102" s="66"/>
       <c r="L102" s="67"/>
@@ -25868,7 +25854,7 @@
       <c r="H103" s="67"/>
       <c r="I103" s="67"/>
       <c r="J103" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K103" s="66"/>
       <c r="L103" s="67"/>
@@ -25903,7 +25889,7 @@
       <c r="H104" s="67"/>
       <c r="I104" s="67"/>
       <c r="J104" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K104" s="66"/>
       <c r="L104" s="67"/>
@@ -25938,7 +25924,7 @@
       <c r="H105" s="67"/>
       <c r="I105" s="67"/>
       <c r="J105" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K105" s="66"/>
       <c r="L105" s="67"/>
@@ -25975,7 +25961,7 @@
       <c r="H106" s="67"/>
       <c r="I106" s="67"/>
       <c r="J106" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K106" s="66"/>
       <c r="L106" s="67"/>
@@ -26010,7 +25996,7 @@
       <c r="H107" s="67"/>
       <c r="I107" s="67"/>
       <c r="J107" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K107" s="66"/>
       <c r="L107" s="67"/>
@@ -26045,7 +26031,7 @@
       <c r="H108" s="67"/>
       <c r="I108" s="67"/>
       <c r="J108" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K108" s="66"/>
       <c r="L108" s="67"/>
@@ -26080,7 +26066,7 @@
       <c r="H109" s="67"/>
       <c r="I109" s="67"/>
       <c r="J109" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K109" s="66"/>
       <c r="L109" s="67"/>
@@ -26115,7 +26101,7 @@
       <c r="H110" s="67"/>
       <c r="I110" s="67"/>
       <c r="J110" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K110" s="66"/>
       <c r="L110" s="67"/>
@@ -26152,7 +26138,7 @@
       <c r="H111" s="67"/>
       <c r="I111" s="67"/>
       <c r="J111" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K111" s="66"/>
       <c r="L111" s="67"/>
@@ -26195,7 +26181,7 @@
       <c r="H112" s="67"/>
       <c r="I112" s="67"/>
       <c r="J112" s="66" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K112" s="66"/>
       <c r="L112" s="67"/>
@@ -26236,7 +26222,7 @@
       <c r="H113" s="67"/>
       <c r="I113" s="67"/>
       <c r="J113" s="66" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K113" s="66"/>
       <c r="L113" s="67"/>
@@ -26271,7 +26257,7 @@
       <c r="H114" s="67"/>
       <c r="I114" s="67"/>
       <c r="J114" s="66" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K114" s="66"/>
       <c r="L114" s="67"/>
@@ -26312,7 +26298,7 @@
       <c r="H115" s="67"/>
       <c r="I115" s="67"/>
       <c r="J115" s="66" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K115" s="66"/>
       <c r="L115" s="67"/>
@@ -26353,7 +26339,7 @@
       <c r="H116" s="67"/>
       <c r="I116" s="67"/>
       <c r="J116" s="66" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K116" s="66"/>
       <c r="L116" s="67"/>
@@ -26388,7 +26374,7 @@
       <c r="H117" s="67"/>
       <c r="I117" s="67"/>
       <c r="J117" s="66" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K117" s="66"/>
       <c r="L117" s="67"/>
@@ -33112,29 +33098,29 @@
       </c>
       <c r="G303" s="61"/>
       <c r="H303" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="I303" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="J303" s="62" t="s">
         <v>547</v>
       </c>
-      <c r="I303" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="J303" s="62" t="s">
-        <v>549</v>
-      </c>
       <c r="K303" s="62" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L303" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M303" s="62"/>
       <c r="N303" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O303" s="144">
         <v>44858</v>
       </c>
       <c r="P303" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q303" s="62"/>
       <c r="R303" s="62"/>
@@ -33168,26 +33154,26 @@
         <v>497</v>
       </c>
       <c r="I304" s="62" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J304" s="62" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K304" s="62" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L304" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M304" s="62"/>
       <c r="N304" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O304" s="144">
         <v>44858</v>
       </c>
       <c r="P304" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q304" s="62"/>
       <c r="R304" s="62"/>
@@ -33215,26 +33201,26 @@
         <v>497</v>
       </c>
       <c r="I305" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="J305" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="J305" s="62" t="s">
-        <v>552</v>
-      </c>
       <c r="K305" s="62" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L305" s="62" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M305" s="62"/>
       <c r="N305" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O305" s="144">
         <v>44858</v>
       </c>
       <c r="P305" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q305" s="62"/>
       <c r="R305" s="62"/>
@@ -33262,26 +33248,26 @@
         <v>497</v>
       </c>
       <c r="I306" s="62" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J306" s="62" t="s">
         <v>502</v>
       </c>
       <c r="K306" s="62" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L306" s="62" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M306" s="62"/>
       <c r="N306" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O306" s="144">
         <v>44858</v>
       </c>
       <c r="P306" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q306" s="62"/>
       <c r="R306" s="62"/>
@@ -33312,29 +33298,29 @@
       </c>
       <c r="G307" s="61"/>
       <c r="H307" s="62" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I307" s="62" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J307" s="62" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K307" s="62" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L307" s="143" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M307" s="62"/>
       <c r="N307" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O307" s="144">
         <v>44858</v>
       </c>
       <c r="P307" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q307" s="62"/>
       <c r="R307" s="62"/>
@@ -33361,29 +33347,29 @@
       </c>
       <c r="G308" s="61"/>
       <c r="H308" s="62" t="s">
+        <v>555</v>
+      </c>
+      <c r="I308" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="J308" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="K308" s="62" t="s">
         <v>557</v>
       </c>
-      <c r="I308" s="62" t="s">
-        <v>558</v>
-      </c>
-      <c r="J308" s="62" t="s">
-        <v>552</v>
-      </c>
-      <c r="K308" s="62" t="s">
-        <v>559</v>
-      </c>
       <c r="L308" s="62" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M308" s="62"/>
       <c r="N308" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O308" s="144">
         <v>44858</v>
       </c>
       <c r="P308" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q308" s="62"/>
       <c r="R308" s="62"/>
@@ -33412,7 +33398,7 @@
       <c r="H309" s="67"/>
       <c r="I309" s="67"/>
       <c r="J309" s="67" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K309" s="67"/>
       <c r="L309" s="67"/>
@@ -33451,7 +33437,7 @@
       <c r="H310" s="67"/>
       <c r="I310" s="67"/>
       <c r="J310" s="67" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K310" s="67"/>
       <c r="L310" s="67"/>
@@ -33488,7 +33474,7 @@
       <c r="H311" s="67"/>
       <c r="I311" s="67"/>
       <c r="J311" s="67" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K311" s="67"/>
       <c r="L311" s="67"/>
@@ -33525,29 +33511,29 @@
       </c>
       <c r="G312" s="61"/>
       <c r="H312" s="62" t="s">
+        <v>555</v>
+      </c>
+      <c r="I312" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="J312" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="K312" s="62" t="s">
         <v>557</v>
       </c>
-      <c r="I312" s="62" t="s">
-        <v>558</v>
-      </c>
-      <c r="J312" s="62" t="s">
-        <v>552</v>
-      </c>
-      <c r="K312" s="62" t="s">
-        <v>559</v>
-      </c>
       <c r="L312" s="62" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M312" s="62"/>
       <c r="N312" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O312" s="144">
         <v>44858</v>
       </c>
       <c r="P312" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q312" s="62"/>
       <c r="R312" s="62"/>
@@ -33572,10 +33558,10 @@
       <c r="F313" s="133"/>
       <c r="G313" s="61"/>
       <c r="H313" s="62" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I313" s="62" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J313" s="62" t="s">
         <v>502</v>
@@ -33584,17 +33570,17 @@
         <v>503</v>
       </c>
       <c r="L313" s="62" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M313" s="62"/>
       <c r="N313" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O313" s="144">
         <v>44858</v>
       </c>
       <c r="P313" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q313" s="62"/>
       <c r="R313" s="62"/>
@@ -33621,29 +33607,29 @@
       </c>
       <c r="G314" s="61"/>
       <c r="H314" s="62" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I314" s="62" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J314" s="62" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K314" s="62" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L314" s="62" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M314" s="62"/>
       <c r="N314" s="142" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O314" s="144">
         <v>44858</v>
       </c>
       <c r="P314" s="144" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q314" s="62"/>
       <c r="R314" s="62"/>
@@ -33672,7 +33658,7 @@
       <c r="H315" s="67"/>
       <c r="I315" s="67"/>
       <c r="J315" s="67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K315" s="67"/>
       <c r="L315" s="67"/>
@@ -33707,7 +33693,7 @@
       <c r="H316" s="67"/>
       <c r="I316" s="67"/>
       <c r="J316" s="67" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K316" s="67"/>
       <c r="L316" s="67"/>
@@ -33742,7 +33728,7 @@
       <c r="H317" s="67"/>
       <c r="I317" s="67"/>
       <c r="J317" s="67" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K317" s="67"/>
       <c r="L317" s="67"/>
@@ -33777,7 +33763,7 @@
       <c r="H318" s="67"/>
       <c r="I318" s="67"/>
       <c r="J318" s="67" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K318" s="67"/>
       <c r="L318" s="67"/>
@@ -33812,7 +33798,7 @@
       <c r="H319" s="67"/>
       <c r="I319" s="67"/>
       <c r="J319" s="67" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K319" s="67"/>
       <c r="L319" s="67"/>
@@ -33847,7 +33833,7 @@
       <c r="H320" s="67"/>
       <c r="I320" s="67"/>
       <c r="J320" s="67" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K320" s="67"/>
       <c r="L320" s="67"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756C1F4-D55A-4F7B-9B3C-17A080E5A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B576A-2CFF-47D1-8B08-B7CB4F2BD58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="585">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -7690,9 +7690,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testRegisterNoParameter()</t>
-  </si>
-  <si>
     <t>有効なレコードが存在する場合、エラーとならないこと。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7742,6 +7739,13 @@
     <t>以下のリクエストを送信する。
 ・「顧客名」：パラメータなし
 ・「業種コード」：パラメータなし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testRegisterEmptyParameter()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testRegisterEmptyParameter()</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8795,72 +8799,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8967,6 +8905,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10474,57 +10478,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="206" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="184" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="221" t="s">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="199" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="230" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="197" t="str">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="175" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10532,53 +10536,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="209" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="187" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="175" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10586,45 +10590,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="230"/>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10661,85 +10665,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="200" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="200" t="s">
+      <c r="H7" s="180"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="200" t="s">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="202"/>
-      <c r="W7" s="202"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="202"/>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="200" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="201"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="179"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="196"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="230"/>
+      <c r="AB8" s="230"/>
+      <c r="AC8" s="230"/>
+      <c r="AD8" s="230"/>
+      <c r="AE8" s="231"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10747,934 +10751,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="183"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="222"/>
+      <c r="AF9" s="217"/>
+      <c r="AG9" s="218"/>
+      <c r="AH9" s="218"/>
+      <c r="AI9" s="219"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="182"/>
-      <c r="AI10" s="183"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="221"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="222"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="218"/>
+      <c r="AH10" s="218"/>
+      <c r="AI10" s="219"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="183"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="221"/>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="221"/>
+      <c r="AC11" s="221"/>
+      <c r="AD11" s="221"/>
+      <c r="AE11" s="222"/>
+      <c r="AF11" s="217"/>
+      <c r="AG11" s="218"/>
+      <c r="AH11" s="218"/>
+      <c r="AI11" s="219"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="181"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="183"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="222"/>
+      <c r="AF12" s="217"/>
+      <c r="AG12" s="218"/>
+      <c r="AH12" s="218"/>
+      <c r="AI12" s="219"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="181"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="183"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="219"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="221"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="221"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="221"/>
+      <c r="Y13" s="221"/>
+      <c r="Z13" s="221"/>
+      <c r="AA13" s="221"/>
+      <c r="AB13" s="221"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="221"/>
+      <c r="AE13" s="222"/>
+      <c r="AF13" s="217"/>
+      <c r="AG13" s="218"/>
+      <c r="AH13" s="218"/>
+      <c r="AI13" s="219"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="183"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="221"/>
+      <c r="AC14" s="221"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="222"/>
+      <c r="AF14" s="217"/>
+      <c r="AG14" s="218"/>
+      <c r="AH14" s="218"/>
+      <c r="AI14" s="219"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="181"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="221"/>
+      <c r="S15" s="221"/>
+      <c r="T15" s="221"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="221"/>
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="221"/>
+      <c r="Z15" s="221"/>
+      <c r="AA15" s="221"/>
+      <c r="AB15" s="221"/>
+      <c r="AC15" s="221"/>
+      <c r="AD15" s="221"/>
+      <c r="AE15" s="222"/>
+      <c r="AF15" s="217"/>
+      <c r="AG15" s="218"/>
+      <c r="AH15" s="218"/>
+      <c r="AI15" s="219"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="181"/>
-      <c r="AG16" s="182"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="183"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="219"/>
+      <c r="Q16" s="220"/>
+      <c r="R16" s="221"/>
+      <c r="S16" s="221"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="221"/>
+      <c r="AB16" s="221"/>
+      <c r="AC16" s="221"/>
+      <c r="AD16" s="221"/>
+      <c r="AE16" s="222"/>
+      <c r="AF16" s="217"/>
+      <c r="AG16" s="218"/>
+      <c r="AH16" s="218"/>
+      <c r="AI16" s="219"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="181"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="182"/>
-      <c r="AI17" s="183"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="220"/>
+      <c r="R17" s="221"/>
+      <c r="S17" s="221"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="221"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="222"/>
+      <c r="AF17" s="217"/>
+      <c r="AG17" s="218"/>
+      <c r="AH17" s="218"/>
+      <c r="AI17" s="219"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-      <c r="AI18" s="183"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="222"/>
+      <c r="AF18" s="217"/>
+      <c r="AG18" s="218"/>
+      <c r="AH18" s="218"/>
+      <c r="AI18" s="219"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="185"/>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
-      <c r="Y19" s="185"/>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="185"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-      <c r="AI19" s="183"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="219"/>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="222"/>
+      <c r="AF19" s="217"/>
+      <c r="AG19" s="218"/>
+      <c r="AH19" s="218"/>
+      <c r="AI19" s="219"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="181"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="183"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="221"/>
+      <c r="S20" s="221"/>
+      <c r="T20" s="221"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="221"/>
+      <c r="W20" s="221"/>
+      <c r="X20" s="221"/>
+      <c r="Y20" s="221"/>
+      <c r="Z20" s="221"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="221"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="221"/>
+      <c r="AE20" s="222"/>
+      <c r="AF20" s="217"/>
+      <c r="AG20" s="218"/>
+      <c r="AH20" s="218"/>
+      <c r="AI20" s="219"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="185"/>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="185"/>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="185"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="183"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="220"/>
+      <c r="R21" s="221"/>
+      <c r="S21" s="221"/>
+      <c r="T21" s="221"/>
+      <c r="U21" s="221"/>
+      <c r="V21" s="221"/>
+      <c r="W21" s="221"/>
+      <c r="X21" s="221"/>
+      <c r="Y21" s="221"/>
+      <c r="Z21" s="221"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="221"/>
+      <c r="AC21" s="221"/>
+      <c r="AD21" s="221"/>
+      <c r="AE21" s="222"/>
+      <c r="AF21" s="217"/>
+      <c r="AG21" s="218"/>
+      <c r="AH21" s="218"/>
+      <c r="AI21" s="219"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="185"/>
-      <c r="AD22" s="185"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="183"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="221"/>
+      <c r="AC22" s="221"/>
+      <c r="AD22" s="221"/>
+      <c r="AE22" s="222"/>
+      <c r="AF22" s="217"/>
+      <c r="AG22" s="218"/>
+      <c r="AH22" s="218"/>
+      <c r="AI22" s="219"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="182"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="183"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="219"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="221"/>
+      <c r="S23" s="221"/>
+      <c r="T23" s="221"/>
+      <c r="U23" s="221"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="221"/>
+      <c r="AD23" s="221"/>
+      <c r="AE23" s="222"/>
+      <c r="AF23" s="217"/>
+      <c r="AG23" s="218"/>
+      <c r="AH23" s="218"/>
+      <c r="AI23" s="219"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="185"/>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="182"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="183"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="217"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="219"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="221"/>
+      <c r="AE24" s="222"/>
+      <c r="AF24" s="217"/>
+      <c r="AG24" s="218"/>
+      <c r="AH24" s="218"/>
+      <c r="AI24" s="219"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="185"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="185"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="185"/>
-      <c r="AC25" s="185"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="182"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="183"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="222"/>
+      <c r="AF25" s="217"/>
+      <c r="AG25" s="218"/>
+      <c r="AH25" s="218"/>
+      <c r="AI25" s="219"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="185"/>
-      <c r="AA26" s="185"/>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="185"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="181"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="183"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="218"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="222"/>
+      <c r="AF26" s="217"/>
+      <c r="AG26" s="218"/>
+      <c r="AH26" s="218"/>
+      <c r="AI26" s="219"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="185"/>
-      <c r="AA27" s="185"/>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="185"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="181"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="183"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="217"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="218"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="222"/>
+      <c r="AF27" s="217"/>
+      <c r="AG27" s="218"/>
+      <c r="AH27" s="218"/>
+      <c r="AI27" s="219"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="181"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="183"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="218"/>
+      <c r="P28" s="219"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="221"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="221"/>
+      <c r="W28" s="221"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="221"/>
+      <c r="Z28" s="221"/>
+      <c r="AA28" s="221"/>
+      <c r="AB28" s="221"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="221"/>
+      <c r="AE28" s="222"/>
+      <c r="AF28" s="217"/>
+      <c r="AG28" s="218"/>
+      <c r="AH28" s="218"/>
+      <c r="AI28" s="219"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="185"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="181"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="219"/>
+      <c r="Q29" s="220"/>
+      <c r="R29" s="221"/>
+      <c r="S29" s="221"/>
+      <c r="T29" s="221"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="221"/>
+      <c r="W29" s="221"/>
+      <c r="X29" s="221"/>
+      <c r="Y29" s="221"/>
+      <c r="Z29" s="221"/>
+      <c r="AA29" s="221"/>
+      <c r="AB29" s="221"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="221"/>
+      <c r="AE29" s="222"/>
+      <c r="AF29" s="217"/>
+      <c r="AG29" s="218"/>
+      <c r="AH29" s="218"/>
+      <c r="AI29" s="219"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="185"/>
-      <c r="X30" s="185"/>
-      <c r="Y30" s="185"/>
-      <c r="Z30" s="185"/>
-      <c r="AA30" s="185"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="185"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="181"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="183"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="218"/>
+      <c r="P30" s="219"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="221"/>
+      <c r="S30" s="221"/>
+      <c r="T30" s="221"/>
+      <c r="U30" s="221"/>
+      <c r="V30" s="221"/>
+      <c r="W30" s="221"/>
+      <c r="X30" s="221"/>
+      <c r="Y30" s="221"/>
+      <c r="Z30" s="221"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="221"/>
+      <c r="AC30" s="221"/>
+      <c r="AD30" s="221"/>
+      <c r="AE30" s="222"/>
+      <c r="AF30" s="217"/>
+      <c r="AG30" s="218"/>
+      <c r="AH30" s="218"/>
+      <c r="AI30" s="219"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="185"/>
-      <c r="T31" s="185"/>
-      <c r="U31" s="185"/>
-      <c r="V31" s="185"/>
-      <c r="W31" s="185"/>
-      <c r="X31" s="185"/>
-      <c r="Y31" s="185"/>
-      <c r="Z31" s="185"/>
-      <c r="AA31" s="185"/>
-      <c r="AB31" s="185"/>
-      <c r="AC31" s="185"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="183"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="218"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="221"/>
+      <c r="U31" s="221"/>
+      <c r="V31" s="221"/>
+      <c r="W31" s="221"/>
+      <c r="X31" s="221"/>
+      <c r="Y31" s="221"/>
+      <c r="Z31" s="221"/>
+      <c r="AA31" s="221"/>
+      <c r="AB31" s="221"/>
+      <c r="AC31" s="221"/>
+      <c r="AD31" s="221"/>
+      <c r="AE31" s="222"/>
+      <c r="AF31" s="217"/>
+      <c r="AG31" s="218"/>
+      <c r="AH31" s="218"/>
+      <c r="AI31" s="219"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
-      <c r="AC32" s="185"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="181"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="183"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="218"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
+      <c r="W32" s="221"/>
+      <c r="X32" s="221"/>
+      <c r="Y32" s="221"/>
+      <c r="Z32" s="221"/>
+      <c r="AA32" s="221"/>
+      <c r="AB32" s="221"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="221"/>
+      <c r="AE32" s="222"/>
+      <c r="AF32" s="217"/>
+      <c r="AG32" s="218"/>
+      <c r="AH32" s="218"/>
+      <c r="AI32" s="219"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
-      <c r="Y33" s="185"/>
-      <c r="Z33" s="185"/>
-      <c r="AA33" s="185"/>
-      <c r="AB33" s="185"/>
-      <c r="AC33" s="185"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="186"/>
-      <c r="AF33" s="181"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="183"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="218"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="218"/>
+      <c r="P33" s="219"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="221"/>
+      <c r="S33" s="221"/>
+      <c r="T33" s="221"/>
+      <c r="U33" s="221"/>
+      <c r="V33" s="221"/>
+      <c r="W33" s="221"/>
+      <c r="X33" s="221"/>
+      <c r="Y33" s="221"/>
+      <c r="Z33" s="221"/>
+      <c r="AA33" s="221"/>
+      <c r="AB33" s="221"/>
+      <c r="AC33" s="221"/>
+      <c r="AD33" s="221"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="217"/>
+      <c r="AG33" s="218"/>
+      <c r="AH33" s="218"/>
+      <c r="AI33" s="219"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11698,161 +11857,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13053,7 +13057,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G40" s="51"/>
       <c r="H40" s="51" t="s">
@@ -13089,7 +13093,7 @@
       <c r="D41" s="136"/>
       <c r="E41" s="137"/>
       <c r="F41" s="108" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G41" s="138"/>
       <c r="H41" s="138" t="s">
@@ -13137,7 +13141,7 @@
       <c r="D42" s="136"/>
       <c r="E42" s="137"/>
       <c r="F42" s="98" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G42" s="51"/>
       <c r="H42" s="51" t="s">
@@ -13173,7 +13177,7 @@
       <c r="D43" s="145"/>
       <c r="E43" s="146"/>
       <c r="F43" s="108" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G43" s="138"/>
       <c r="H43" s="138" t="s">
@@ -23480,13 +23484,13 @@
         <v>508</v>
       </c>
       <c r="J42" s="141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K42" s="141" t="s">
         <v>557</v>
       </c>
       <c r="L42" s="143" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M42" s="143"/>
       <c r="N42" s="142" t="s">
@@ -33210,7 +33214,7 @@
         <v>551</v>
       </c>
       <c r="L305" s="62" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="M305" s="62"/>
       <c r="N305" s="142" t="s">
@@ -33359,7 +33363,7 @@
         <v>557</v>
       </c>
       <c r="L308" s="62" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M308" s="62"/>
       <c r="N308" s="142" t="s">
@@ -33523,7 +33527,7 @@
         <v>557</v>
       </c>
       <c r="L312" s="62" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M312" s="62"/>
       <c r="N312" s="142" t="s">
@@ -33619,7 +33623,7 @@
         <v>557</v>
       </c>
       <c r="L314" s="62" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M314" s="62"/>
       <c r="N314" s="142" t="s">
